--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>string</t>
   </si>
@@ -387,6 +387,46 @@
   </si>
   <si>
     <t>套装7</t>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3</t>
+  </si>
+  <si>
+    <t>1;4</t>
+  </si>
+  <si>
+    <t>1;5</t>
+  </si>
+  <si>
+    <t>1;6</t>
+  </si>
+  <si>
+    <t>1;7</t>
+  </si>
+  <si>
+    <t>1;8</t>
+  </si>
+  <si>
+    <t>1;9</t>
+  </si>
+  <si>
+    <t>1;10</t>
+  </si>
+  <si>
+    <t>1;11</t>
+  </si>
+  <si>
+    <t>1;12</t>
+  </si>
+  <si>
+    <t>1;13</t>
+  </si>
+  <si>
+    <t>1;14</t>
   </si>
 </sst>
 </file>
@@ -805,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -930,10 +970,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A5,0)</f>
+        <f t="shared" ref="F5:F11" si="0">"item_json."&amp;TEXT(A5,0)</f>
         <v>item_json.101</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="H5">
         <v>10</v>
       </c>
@@ -955,10 +997,12 @@
         <v>2</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A6,0)</f>
+        <f t="shared" si="0"/>
         <v>item_json.201</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="H6">
         <v>10</v>
       </c>
@@ -980,8 +1024,11 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A7,0)</f>
+        <f t="shared" si="0"/>
         <v>item_json.301</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1004,8 +1051,11 @@
         <v>4</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A8,0)</f>
+        <f t="shared" si="0"/>
         <v>item_json.401</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1028,8 +1078,11 @@
         <v>5</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A9,0)</f>
+        <f t="shared" si="0"/>
         <v>item_json.501</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1052,8 +1105,11 @@
         <v>6</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A10,0)</f>
+        <f t="shared" si="0"/>
         <v>item_json.601</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -1079,8 +1135,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A11,0)</f>
+        <f t="shared" si="0"/>
         <v>item_json.701</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1106,8 +1165,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f t="shared" ref="F12:F17" si="0">"item_json."&amp;TEXT(A12,0)</f>
+        <f t="shared" ref="F12:F17" si="1">"item_json."&amp;TEXT(A12,0)</f>
         <v>item_json.702</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1133,8 +1195,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>item_json.703</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1160,8 +1225,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>item_json.704</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1187,8 +1255,11 @@
         <v>1</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>item_json.705</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -1214,8 +1285,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>item_json.706</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1241,8 +1315,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>item_json.707</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="H17">
         <v>10</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -177,20 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ListSpliter: ";"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,6 +413,10 @@
   </si>
   <si>
     <t>1;14</t>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -846,7 +836,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -875,7 +865,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>37</v>
@@ -910,7 +900,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>27</v>
@@ -924,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -938,10 +928,10 @@
         <v>25</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>39</v>
@@ -974,7 +964,7 @@
         <v>item_json.101</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -1001,7 +991,7 @@
         <v>item_json.201</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -1028,7 +1018,7 @@
         <v>item_json.301</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1055,7 +1045,7 @@
         <v>item_json.401</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1082,7 +1072,7 @@
         <v>item_json.501</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1109,7 +1099,7 @@
         <v>item_json.601</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -1123,7 +1113,7 @@
         <v>701</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
@@ -1139,7 +1129,7 @@
         <v>item_json.701</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1153,7 +1143,7 @@
         <v>702</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>36</v>
@@ -1169,7 +1159,7 @@
         <v>item_json.702</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1183,7 +1173,7 @@
         <v>703</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>36</v>
@@ -1199,7 +1189,7 @@
         <v>item_json.703</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1213,7 +1203,7 @@
         <v>704</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>36</v>
@@ -1229,7 +1219,7 @@
         <v>item_json.704</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1243,7 +1233,7 @@
         <v>705</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>36</v>
@@ -1259,7 +1249,7 @@
         <v>item_json.705</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -1273,7 +1263,7 @@
         <v>706</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
@@ -1289,7 +1279,7 @@
         <v>item_json.706</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1303,7 +1293,7 @@
         <v>707</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
@@ -1319,7 +1309,7 @@
         <v>item_json.707</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H17">
         <v>10</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>string</t>
   </si>
@@ -357,24 +357,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>套装2</t>
-  </si>
-  <si>
-    <t>套装3</t>
-  </si>
-  <si>
-    <t>套装4</t>
-  </si>
-  <si>
-    <t>套装5</t>
-  </si>
-  <si>
-    <t>套装6</t>
-  </si>
-  <si>
-    <t>套装7</t>
-  </si>
-  <si>
     <t>1;2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -395,24 +377,6 @@
   </si>
   <si>
     <t>1;8</t>
-  </si>
-  <si>
-    <t>1;9</t>
-  </si>
-  <si>
-    <t>1;10</t>
-  </si>
-  <si>
-    <t>1;11</t>
-  </si>
-  <si>
-    <t>1;12</t>
-  </si>
-  <si>
-    <t>1;13</t>
-  </si>
-  <si>
-    <t>1;14</t>
   </si>
   <si>
     <t>[]string</t>
@@ -836,7 +800,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -900,7 +864,7 @@
         <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>27</v>
@@ -960,11 +924,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="4" t="str">
-        <f t="shared" ref="F5:F11" si="0">"item_json."&amp;TEXT(A5,0)</f>
+        <f t="shared" ref="F5" si="0">"item_json."&amp;TEXT(A5,0)</f>
         <v>item_json.101</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -975,23 +939,26 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.201</v>
+        <f t="shared" ref="F6" si="1">"item_json."&amp;TEXT(A6,0)</f>
+        <v>item_json.102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -1001,24 +968,24 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>301</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>33</v>
+      <c r="A7">
+        <v>201</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.301</v>
+        <f>"item_json."&amp;TEXT(A7,0)</f>
+        <v>item_json.201</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1028,24 +995,27 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>401</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>34</v>
+      <c r="A8">
+        <v>202</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.401</v>
+        <f>"item_json."&amp;TEXT(A8,0)</f>
+        <v>item_json.202</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1056,23 +1026,23 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.501</v>
+        <f>"item_json."&amp;TEXT(A9,0)</f>
+        <v>item_json.301</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1083,23 +1053,26 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>601</v>
+        <v>302</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.601</v>
+        <f>"item_json."&amp;TEXT(A10,0)</f>
+        <v>item_json.302</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -1110,26 +1083,23 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>701</v>
+        <v>401</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>item_json.701</v>
+        <f>"item_json."&amp;TEXT(A11,0)</f>
+        <v>item_json.401</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1140,26 +1110,26 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>702</v>
+        <v>402</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f t="shared" ref="F12:F17" si="1">"item_json."&amp;TEXT(A12,0)</f>
-        <v>item_json.702</v>
+        <f>"item_json."&amp;TEXT(A12,0)</f>
+        <v>item_json.402</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1170,26 +1140,23 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>703</v>
+        <v>501</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>item_json.703</v>
+        <f>"item_json."&amp;TEXT(A13,0)</f>
+        <v>item_json.501</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1200,26 +1167,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>704</v>
+        <v>502</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>item_json.704</v>
+        <f>"item_json."&amp;TEXT(A14,0)</f>
+        <v>item_json.502</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1230,26 +1197,23 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>705</v>
+        <v>601</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>item_json.705</v>
+        <f>"item_json."&amp;TEXT(A15,0)</f>
+        <v>item_json.601</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -1260,26 +1224,26 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>706</v>
+        <v>602</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>item_json.706</v>
+        <f>"item_json."&amp;TEXT(A16,0)</f>
+        <v>item_json.602</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1290,10 +1254,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
@@ -1301,15 +1265,12 @@
       <c r="D17">
         <v>7</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>item_json.707</v>
+        <f>"item_json."&amp;TEXT(A17,0)</f>
+        <v>item_json.701</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H17">
         <v>10</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -93,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,6 +376,10 @@
   </si>
   <si>
     <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +800,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -829,24 +829,24 @@
         <v>23</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -886,28 +886,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -915,10 +915,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>item_json.101</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -942,10 +942,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>item_json.102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -972,20 +972,20 @@
         <v>201</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="F7" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A7,0)</f>
+        <f t="shared" ref="F7:F17" si="2">"item_json."&amp;TEXT(A7,0)</f>
         <v>item_json.201</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -999,10 +999,10 @@
         <v>202</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1011,11 +1011,11 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A8,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.202</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1029,20 +1029,20 @@
         <v>301</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A9,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.301</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1056,10 +1056,10 @@
         <v>302</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1068,11 +1068,11 @@
         <v>1</v>
       </c>
       <c r="F10" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A10,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.302</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -1086,20 +1086,20 @@
         <v>401</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A11,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.401</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1113,10 +1113,10 @@
         <v>402</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1125,11 +1125,11 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A12,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.402</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1143,20 +1143,20 @@
         <v>501</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A13,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.501</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1170,10 +1170,10 @@
         <v>502</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1182,11 +1182,11 @@
         <v>1</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A14,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.502</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1200,20 +1200,20 @@
         <v>601</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A15,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.601</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -1227,10 +1227,10 @@
         <v>602</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1239,11 +1239,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A16,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.602</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1257,20 +1257,20 @@
         <v>701</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>7</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f>"item_json."&amp;TEXT(A17,0)</f>
+        <f t="shared" si="2"/>
         <v>item_json.701</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -1302,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备简介</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +170,10 @@
   </si>
   <si>
     <t>ListSpliter: ";"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuitId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -184,7 +184,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>装备类型：</t>
+      <t>套装</t>
     </r>
     <r>
       <rPr>
@@ -192,8 +192,49 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>1.</t>
-    </r>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;3</t>
+  </si>
+  <si>
+    <t>1;4</t>
+  </si>
+  <si>
+    <t>1;5</t>
+  </si>
+  <si>
+    <t>1;6</t>
+  </si>
+  <si>
+    <t>1;7</t>
+  </si>
+  <si>
+    <t>1;8</t>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -201,7 +242,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>头部</t>
+      <t>装备类型：</t>
     </r>
     <r>
       <rPr>
@@ -209,7 +250,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>2.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -218,7 +259,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>上身</t>
+      <t>头部</t>
     </r>
     <r>
       <rPr>
@@ -226,7 +267,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>3.</t>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
@@ -235,7 +276,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>下身</t>
+      <t>上身</t>
     </r>
     <r>
       <rPr>
@@ -243,7 +284,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>4.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -252,7 +293,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>鞋子</t>
+      <t>下身</t>
     </r>
     <r>
       <rPr>
@@ -260,7 +301,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>5.</t>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -269,7 +310,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>手持</t>
+      <t>鞋子</t>
     </r>
     <r>
       <rPr>
@@ -277,7 +318,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>6.</t>
+      <t>5.</t>
     </r>
     <r>
       <rPr>
@@ -286,7 +327,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>翅膀</t>
+      <t>手持</t>
     </r>
     <r>
       <rPr>
@@ -294,7 +335,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>7.</t>
+      <t>6.</t>
     </r>
     <r>
       <rPr>
@@ -303,7 +344,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>套装</t>
+      <t>翅膀</t>
     </r>
     <r>
       <rPr>
@@ -311,7 +352,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>8</t>
+      <t>7.</t>
     </r>
     <r>
       <rPr>
@@ -320,15 +361,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>长衣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SuitId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>套装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -336,50 +378,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>套装</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套装1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;3</t>
-  </si>
-  <si>
-    <t>1;4</t>
-  </si>
-  <si>
-    <t>1;5</t>
-  </si>
-  <si>
-    <t>1;6</t>
-  </si>
-  <si>
-    <t>1;7</t>
-  </si>
-  <si>
-    <t>1;8</t>
-  </si>
-  <si>
-    <t>[]string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
+      <t>长衣</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -800,7 +800,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -808,7 +808,7 @@
     <col min="1" max="1" width="50" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.09765625" customWidth="1"/>
     <col min="5" max="5" width="6.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
@@ -826,27 +826,27 @@
         <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -886,28 +886,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -915,10 +915,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>item_json.101</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>10</v>
@@ -942,10 +942,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>item_json.102</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6">
         <v>10</v>
@@ -972,10 +972,10 @@
         <v>201</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -985,7 +985,7 @@
         <v>item_json.201</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -999,10 +999,10 @@
         <v>202</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1015,7 +1015,7 @@
         <v>item_json.202</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H8">
         <v>10</v>
@@ -1029,10 +1029,10 @@
         <v>301</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1042,7 +1042,7 @@
         <v>item_json.301</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>10</v>
@@ -1056,10 +1056,10 @@
         <v>302</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>item_json.302</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H10">
         <v>10</v>
@@ -1086,10 +1086,10 @@
         <v>401</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>4</v>
@@ -1099,7 +1099,7 @@
         <v>item_json.401</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H11">
         <v>10</v>
@@ -1113,10 +1113,10 @@
         <v>402</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -1129,7 +1129,7 @@
         <v>item_json.402</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -1143,10 +1143,10 @@
         <v>501</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1156,7 +1156,7 @@
         <v>item_json.501</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -1170,10 +1170,10 @@
         <v>502</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -1186,7 +1186,7 @@
         <v>item_json.502</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H14">
         <v>10</v>
@@ -1200,10 +1200,10 @@
         <v>601</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -1213,7 +1213,7 @@
         <v>item_json.601</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H15">
         <v>10</v>
@@ -1227,10 +1227,10 @@
         <v>602</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -1243,7 +1243,7 @@
         <v>item_json.602</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -1257,10 +1257,10 @@
         <v>701</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -1270,7 +1270,7 @@
         <v>item_json.701</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -1302,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>string</t>
   </si>
@@ -223,10 +223,6 @@
     <t>1;8</t>
   </si>
   <si>
-    <t>[]string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,6 +376,22 @@
       </rPr>
       <t>长衣</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -810,12 +822,13 @@
     <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.09765625" customWidth="1"/>
     <col min="5" max="5" width="6.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -826,27 +839,30 @@
         <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -860,28 +876,34 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -892,25 +914,28 @@
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>101</v>
       </c>
@@ -923,21 +948,21 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" ref="F5" si="0">"item_json."&amp;TEXT(A5,0)</f>
+      <c r="G5" s="4" t="str">
+        <f t="shared" ref="G5" si="0">"item_json."&amp;TEXT(A5,0)</f>
         <v>item_json.101</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>102</v>
       </c>
@@ -953,21 +978,21 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" ref="F6" si="1">"item_json."&amp;TEXT(A6,0)</f>
+      <c r="G6" s="4" t="str">
+        <f t="shared" ref="G6" si="1">"item_json."&amp;TEXT(A6,0)</f>
         <v>item_json.102</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>201</v>
       </c>
@@ -980,21 +1005,21 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" ref="F7:F17" si="2">"item_json."&amp;TEXT(A7,0)</f>
+      <c r="G7" s="4" t="str">
+        <f t="shared" ref="G7:G17" si="2">"item_json."&amp;TEXT(A7,0)</f>
         <v>item_json.201</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>202</v>
       </c>
@@ -1010,21 +1035,21 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="str">
+      <c r="G8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.202</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>301</v>
       </c>
@@ -1037,21 +1062,21 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="str">
+      <c r="G9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.301</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>302</v>
       </c>
@@ -1067,21 +1092,21 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="4" t="str">
+      <c r="G10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.302</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>401</v>
       </c>
@@ -1094,21 +1119,21 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="F11" s="4" t="str">
+      <c r="G11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.401</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>402</v>
       </c>
@@ -1124,21 +1149,21 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="4" t="str">
+      <c r="G12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.402</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>501</v>
       </c>
@@ -1151,21 +1176,21 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="F13" s="4" t="str">
+      <c r="G13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.501</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>10</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>502</v>
       </c>
@@ -1181,21 +1206,21 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="4" t="str">
+      <c r="G14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.502</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>10</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>601</v>
       </c>
@@ -1208,21 +1233,21 @@
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="F15" s="4" t="str">
+      <c r="G15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.601</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>10</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>602</v>
       </c>
@@ -1238,21 +1263,21 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="4" t="str">
+      <c r="G16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.602</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>10</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>701</v>
       </c>
@@ -1265,17 +1290,20 @@
       <c r="D17">
         <v>7</v>
       </c>
-      <c r="F17" s="4" t="str">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.701</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>10</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>1</v>
       </c>
     </row>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>string</t>
   </si>
@@ -392,6 +392,59 @@
   </si>
   <si>
     <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>女</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>男</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -809,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,13 +875,14 @@
     <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.09765625" customWidth="1"/>
     <col min="5" max="5" width="6.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>20</v>
       </c>
@@ -845,22 +899,25 @@
         <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -876,34 +933,37 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -919,23 +979,26 @@
       <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>101</v>
       </c>
@@ -948,21 +1011,24 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="str">
-        <f t="shared" ref="G5" si="0">"item_json."&amp;TEXT(A5,0)</f>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" ref="H5" si="0">"item_json."&amp;TEXT(A5,0)</f>
         <v>item_json.101</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>102</v>
       </c>
@@ -978,21 +1044,24 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="str">
-        <f t="shared" ref="G6" si="1">"item_json."&amp;TEXT(A6,0)</f>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="str">
+        <f t="shared" ref="H6" si="1">"item_json."&amp;TEXT(A6,0)</f>
         <v>item_json.102</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>201</v>
       </c>
@@ -1005,21 +1074,24 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="str">
-        <f t="shared" ref="G7:G17" si="2">"item_json."&amp;TEXT(A7,0)</f>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" ref="H7:H17" si="2">"item_json."&amp;TEXT(A7,0)</f>
         <v>item_json.201</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>202</v>
       </c>
@@ -1035,21 +1107,24 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" s="4" t="str">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.202</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>301</v>
       </c>
@@ -1062,21 +1137,24 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="G9" s="4" t="str">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.301</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>302</v>
       </c>
@@ -1092,21 +1170,24 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="G10" s="4" t="str">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.302</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>401</v>
       </c>
@@ -1119,21 +1200,24 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="G11" s="4" t="str">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.401</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>402</v>
       </c>
@@ -1149,21 +1233,24 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12" s="4" t="str">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.402</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>501</v>
       </c>
@@ -1176,21 +1263,24 @@
       <c r="D13">
         <v>5</v>
       </c>
-      <c r="G13" s="4" t="str">
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.501</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>502</v>
       </c>
@@ -1206,21 +1296,24 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="G14" s="4" t="str">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.502</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>601</v>
       </c>
@@ -1233,21 +1326,24 @@
       <c r="D15">
         <v>6</v>
       </c>
-      <c r="G15" s="4" t="str">
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.601</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>602</v>
       </c>
@@ -1263,21 +1359,24 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="G16" s="4" t="str">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.602</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>10</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>701</v>
       </c>
@@ -1293,17 +1392,20 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="G17" s="4" t="str">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>item_json.701</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>10</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1</v>
       </c>
     </row>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
   <si>
     <t>string</t>
   </si>
@@ -231,6 +231,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LoadPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -238,7 +261,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>装备类型：</t>
+      <t>女</t>
     </r>
     <r>
       <rPr>
@@ -246,7 +269,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>1.</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -255,7 +278,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>头部</t>
+      <t>男</t>
     </r>
     <r>
       <rPr>
@@ -263,7 +286,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>2.</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -272,16 +295,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>上身</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>3.</t>
-    </r>
+      <t>全部</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -289,7 +307,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>下身</t>
+      <t>装备类型：</t>
     </r>
     <r>
       <rPr>
@@ -297,7 +315,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>4.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -306,7 +324,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>鞋子</t>
+      <t>头部</t>
     </r>
     <r>
       <rPr>
@@ -314,7 +332,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>5.</t>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
@@ -323,7 +341,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>手持</t>
+      <t>上身</t>
     </r>
     <r>
       <rPr>
@@ -331,7 +349,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>6.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -340,7 +358,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>翅膀</t>
+      <t>下身</t>
     </r>
     <r>
       <rPr>
@@ -348,7 +366,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>7.</t>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -357,7 +375,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>套装</t>
+      <t>鞋子</t>
     </r>
     <r>
       <rPr>
@@ -365,7 +383,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>8</t>
+      <t>5.</t>
     </r>
     <r>
       <rPr>
@@ -374,33 +392,15 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>长衣</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoadPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>挂载点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0</t>
+      <t>翅膀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.</t>
     </r>
     <r>
       <rPr>
@@ -409,7 +409,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>女</t>
+      <t>手持</t>
     </r>
     <r>
       <rPr>
@@ -417,7 +417,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>7.</t>
     </r>
     <r>
       <rPr>
@@ -426,7 +426,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>男</t>
+      <t>套装</t>
     </r>
     <r>
       <rPr>
@@ -434,7 +434,7 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -443,9 +443,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>全部</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>长衣</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套装2</t>
+  </si>
+  <si>
+    <t>套装3</t>
+  </si>
+  <si>
+    <t>套装4</t>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;trousers1_1_04</t>
+  </si>
+  <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;trousers1_1_04;trousers1_1_05;trousers1_1_06</t>
   </si>
 </sst>
 </file>
@@ -862,21 +881,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="50" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.19921875" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.09765625" customWidth="1"/>
     <col min="5" max="5" width="6.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.59765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.3984375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
@@ -899,10 +918,10 @@
         <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>35</v>
@@ -937,13 +956,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>25</v>
@@ -957,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>43</v>
@@ -974,16 +993,16 @@
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>37</v>
@@ -1012,7 +1031,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5" si="0">"item_json."&amp;TEXT(A5,0)</f>
@@ -1041,9 +1063,6 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
         <v>0</v>
       </c>
@@ -1063,26 +1082,26 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" ref="H7:H17" si="2">"item_json."&amp;TEXT(A7,0)</f>
-        <v>item_json.201</v>
+        <f t="shared" ref="H7" si="2">"item_json."&amp;TEXT(A7,0)</f>
+        <v>item_json.103</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -1093,60 +1112,60 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>202</v>
+        <v>104</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.202</v>
+        <f t="shared" ref="H8" si="3">"item_json."&amp;TEXT(A8,0)</f>
+        <v>item_json.104</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>201</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="4" t="str">
+        <f t="shared" ref="H9:H29" si="4">"item_json."&amp;TEXT(A9,0)</f>
+        <v>item_json.201</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>301</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.301</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="J9">
         <v>10</v>
       </c>
@@ -1155,30 +1174,27 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>302</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>31</v>
+      <c r="A10">
+        <v>202</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.302</v>
+        <f t="shared" si="4"/>
+        <v>item_json.202</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1188,27 +1204,27 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>401</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>32</v>
+      <c r="A11">
+        <v>203</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.401</v>
+        <f t="shared" si="4"/>
+        <v>item_json.203</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1218,30 +1234,27 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>402</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>32</v>
+      <c r="A12">
+        <v>204</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.402</v>
+        <f t="shared" ref="H12" si="5">"item_json."&amp;TEXT(A12,0)</f>
+        <v>item_json.204</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1252,26 +1265,29 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.501</v>
+        <f t="shared" si="4"/>
+        <v>item_json.301</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1282,29 +1298,26 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>502</v>
+        <v>302</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.502</v>
+        <f t="shared" si="4"/>
+        <v>item_json.302</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1315,26 +1328,26 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>601</v>
+        <v>303</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.601</v>
+        <f t="shared" ref="H15:H16" si="6">"item_json."&amp;TEXT(A15,0)</f>
+        <v>item_json.303</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1345,29 +1358,26 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>602</v>
+        <v>304</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>item_json.602</v>
+        <f t="shared" si="6"/>
+        <v>item_json.304</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1378,34 +1388,481 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
+        <v>401</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_json.401</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>402</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_json.402</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>403</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" ref="H19:H20" si="7">"item_json."&amp;TEXT(A19,0)</f>
+        <v>item_json.403</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>404</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>item_json.404</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>501</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_json.501</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>502</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_json.502</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>503</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" ref="H23:H24" si="8">"item_json."&amp;TEXT(A23,0)</f>
+        <v>item_json.503</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>504</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>item_json.504</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>601</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_json.601</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>602</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>item_json.602</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>603</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="str">
+        <f t="shared" ref="H27:H28" si="9">"item_json."&amp;TEXT(A27,0)</f>
+        <v>item_json.603</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>604</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>item_json.604</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>701</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17">
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="H17" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="H29" s="4" t="str">
+        <f t="shared" si="4"/>
         <v>item_json.701</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>702</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4" t="str">
+        <f t="shared" ref="H30:H32" si="10">"item_json."&amp;TEXT(A30,0)</f>
+        <v>item_json.702</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>703</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>item_json.703</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>704</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>item_json.704</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
         <v>1</v>
       </c>
     </row>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
   <si>
     <t>string</t>
   </si>
@@ -201,28 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1;3</t>
-  </si>
-  <si>
-    <t>1;4</t>
-  </si>
-  <si>
-    <t>1;5</t>
-  </si>
-  <si>
-    <t>1;6</t>
-  </si>
-  <si>
-    <t>1;7</t>
-  </si>
-  <si>
-    <t>1;8</t>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +443,10 @@
   </si>
   <si>
     <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;trousers1_1_04;trousers1_1_05;trousers1_1_06</t>
+  </si>
+  <si>
+    <t>1;2;3;4;5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -883,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -912,16 +894,16 @@
         <v>22</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>35</v>
@@ -938,7 +920,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -956,13 +938,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>25</v>
@@ -976,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>43</v>
@@ -993,16 +975,16 @@
         <v>23</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>37</v>
@@ -1034,14 +1016,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5" si="0">"item_json."&amp;TEXT(A5,0)</f>
         <v>item_json.101</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>47</v>
+      <c r="I5" s="5">
+        <v>1</v>
       </c>
       <c r="J5">
         <v>10</v>
@@ -1070,8 +1052,8 @@
         <f t="shared" ref="H6" si="1">"item_json."&amp;TEXT(A6,0)</f>
         <v>item_json.102</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>47</v>
+      <c r="I6" s="5">
+        <v>1</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -1100,8 +1082,8 @@
         <f t="shared" ref="H7" si="2">"item_json."&amp;TEXT(A7,0)</f>
         <v>item_json.103</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>47</v>
+      <c r="I7" s="5">
+        <v>1</v>
       </c>
       <c r="J7">
         <v>10</v>
@@ -1130,8 +1112,8 @@
         <f t="shared" ref="H8" si="3">"item_json."&amp;TEXT(A8,0)</f>
         <v>item_json.104</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>47</v>
+      <c r="I8" s="5">
+        <v>1</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -1157,14 +1139,14 @@
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" ref="H9:H29" si="4">"item_json."&amp;TEXT(A9,0)</f>
         <v>item_json.201</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>48</v>
+      <c r="I9" s="5">
+        <v>2</v>
       </c>
       <c r="J9">
         <v>10</v>
@@ -1193,8 +1175,8 @@
         <f t="shared" si="4"/>
         <v>item_json.202</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>48</v>
+      <c r="I10" s="5">
+        <v>2</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -1223,8 +1205,8 @@
         <f t="shared" si="4"/>
         <v>item_json.203</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>48</v>
+      <c r="I11" s="5">
+        <v>2</v>
       </c>
       <c r="J11">
         <v>10</v>
@@ -1253,8 +1235,8 @@
         <f t="shared" ref="H12" si="5">"item_json."&amp;TEXT(A12,0)</f>
         <v>item_json.204</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>48</v>
+      <c r="I12" s="5">
+        <v>2</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -1280,14 +1262,14 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="4"/>
         <v>item_json.301</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>49</v>
+      <c r="I13" s="5">
+        <v>3</v>
       </c>
       <c r="J13">
         <v>10</v>
@@ -1316,8 +1298,8 @@
         <f t="shared" si="4"/>
         <v>item_json.302</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>49</v>
+      <c r="I14" s="5">
+        <v>3</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1346,8 +1328,8 @@
         <f t="shared" ref="H15:H16" si="6">"item_json."&amp;TEXT(A15,0)</f>
         <v>item_json.303</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>49</v>
+      <c r="I15" s="5">
+        <v>3</v>
       </c>
       <c r="J15">
         <v>10</v>
@@ -1376,8 +1358,8 @@
         <f t="shared" si="6"/>
         <v>item_json.304</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>49</v>
+      <c r="I16" s="5">
+        <v>3</v>
       </c>
       <c r="J16">
         <v>10</v>
@@ -1406,8 +1388,8 @@
         <f t="shared" si="4"/>
         <v>item_json.401</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>50</v>
+      <c r="I17" s="5">
+        <v>4</v>
       </c>
       <c r="J17">
         <v>10</v>
@@ -1436,8 +1418,8 @@
         <f t="shared" si="4"/>
         <v>item_json.402</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>50</v>
+      <c r="I18" s="5">
+        <v>4</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -1466,8 +1448,8 @@
         <f t="shared" ref="H19:H20" si="7">"item_json."&amp;TEXT(A19,0)</f>
         <v>item_json.403</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>50</v>
+      <c r="I19" s="5">
+        <v>4</v>
       </c>
       <c r="J19">
         <v>10</v>
@@ -1496,8 +1478,8 @@
         <f t="shared" si="7"/>
         <v>item_json.404</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>50</v>
+      <c r="I20" s="5">
+        <v>4</v>
       </c>
       <c r="J20">
         <v>10</v>
@@ -1526,8 +1508,8 @@
         <f t="shared" si="4"/>
         <v>item_json.501</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>51</v>
+      <c r="I21" s="5">
+        <v>5</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -1556,8 +1538,8 @@
         <f t="shared" si="4"/>
         <v>item_json.502</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>51</v>
+      <c r="I22" s="5">
+        <v>5</v>
       </c>
       <c r="J22">
         <v>10</v>
@@ -1586,8 +1568,8 @@
         <f t="shared" ref="H23:H24" si="8">"item_json."&amp;TEXT(A23,0)</f>
         <v>item_json.503</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>51</v>
+      <c r="I23" s="5">
+        <v>5</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -1616,8 +1598,8 @@
         <f t="shared" si="8"/>
         <v>item_json.504</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>51</v>
+      <c r="I24" s="5">
+        <v>5</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -1647,7 +1629,7 @@
         <v>item_json.601</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J25">
         <v>10</v>
@@ -1677,7 +1659,7 @@
         <v>item_json.602</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J26">
         <v>10</v>
@@ -1707,7 +1689,7 @@
         <v>item_json.603</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J27">
         <v>10</v>
@@ -1737,7 +1719,7 @@
         <v>item_json.604</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="J28">
         <v>10</v>
@@ -1767,7 +1749,7 @@
         <v>item_json.701</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J29">
         <v>10</v>
@@ -1781,7 +1763,7 @@
         <v>702</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>34</v>
@@ -1797,7 +1779,7 @@
         <v>item_json.702</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J30">
         <v>10</v>
@@ -1811,7 +1793,7 @@
         <v>703</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>34</v>
@@ -1827,7 +1809,7 @@
         <v>item_json.703</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J31">
         <v>10</v>
@@ -1841,7 +1823,7 @@
         <v>704</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>34</v>
@@ -1857,7 +1839,7 @@
         <v>item_json.704</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="J32">
         <v>10</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -866,7 +866,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,8 +1019,8 @@
         <v>60</v>
       </c>
       <c r="H5" s="4" t="str">
-        <f t="shared" ref="H5" si="0">"item_json."&amp;TEXT(A5,0)</f>
-        <v>item_json.101</v>
+        <f>"equip_json."&amp;TEXT(A5,0)</f>
+        <v>equip_json.101</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -1049,8 +1049,8 @@
         <v>0</v>
       </c>
       <c r="H6" s="4" t="str">
-        <f t="shared" ref="H6" si="1">"item_json."&amp;TEXT(A6,0)</f>
-        <v>item_json.102</v>
+        <f>"equip_json."&amp;TEXT(A6,0)</f>
+        <v>equip_json.102</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -1079,8 +1079,8 @@
         <v>0</v>
       </c>
       <c r="H7" s="4" t="str">
-        <f t="shared" ref="H7" si="2">"item_json."&amp;TEXT(A7,0)</f>
-        <v>item_json.103</v>
+        <f>"equip_json."&amp;TEXT(A7,0)</f>
+        <v>equip_json.103</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -1109,8 +1109,8 @@
         <v>0</v>
       </c>
       <c r="H8" s="4" t="str">
-        <f t="shared" ref="H8" si="3">"item_json."&amp;TEXT(A8,0)</f>
-        <v>item_json.104</v>
+        <f>"equip_json."&amp;TEXT(A8,0)</f>
+        <v>equip_json.104</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -1142,8 +1142,8 @@
         <v>61</v>
       </c>
       <c r="H9" s="4" t="str">
-        <f t="shared" ref="H9:H29" si="4">"item_json."&amp;TEXT(A9,0)</f>
-        <v>item_json.201</v>
+        <f>"equip_json."&amp;TEXT(A9,0)</f>
+        <v>equip_json.201</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -1172,8 +1172,8 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.202</v>
+        <f>"equip_json."&amp;TEXT(A10,0)</f>
+        <v>equip_json.202</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -1202,8 +1202,8 @@
         <v>0</v>
       </c>
       <c r="H11" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.203</v>
+        <f>"equip_json."&amp;TEXT(A11,0)</f>
+        <v>equip_json.203</v>
       </c>
       <c r="I11" s="5">
         <v>2</v>
@@ -1232,8 +1232,8 @@
         <v>0</v>
       </c>
       <c r="H12" s="4" t="str">
-        <f t="shared" ref="H12" si="5">"item_json."&amp;TEXT(A12,0)</f>
-        <v>item_json.204</v>
+        <f>"equip_json."&amp;TEXT(A12,0)</f>
+        <v>equip_json.204</v>
       </c>
       <c r="I12" s="5">
         <v>2</v>
@@ -1265,8 +1265,8 @@
         <v>61</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.301</v>
+        <f>"equip_json."&amp;TEXT(A13,0)</f>
+        <v>equip_json.301</v>
       </c>
       <c r="I13" s="5">
         <v>3</v>
@@ -1295,8 +1295,8 @@
         <v>0</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.302</v>
+        <f>"equip_json."&amp;TEXT(A14,0)</f>
+        <v>equip_json.302</v>
       </c>
       <c r="I14" s="5">
         <v>3</v>
@@ -1325,8 +1325,8 @@
         <v>1</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" ref="H15:H16" si="6">"item_json."&amp;TEXT(A15,0)</f>
-        <v>item_json.303</v>
+        <f>"equip_json."&amp;TEXT(A15,0)</f>
+        <v>equip_json.303</v>
       </c>
       <c r="I15" s="5">
         <v>3</v>
@@ -1355,8 +1355,8 @@
         <v>0</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>item_json.304</v>
+        <f>"equip_json."&amp;TEXT(A16,0)</f>
+        <v>equip_json.304</v>
       </c>
       <c r="I16" s="5">
         <v>3</v>
@@ -1385,8 +1385,8 @@
         <v>1</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.401</v>
+        <f>"equip_json."&amp;TEXT(A17,0)</f>
+        <v>equip_json.401</v>
       </c>
       <c r="I17" s="5">
         <v>4</v>
@@ -1415,8 +1415,8 @@
         <v>0</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.402</v>
+        <f>"equip_json."&amp;TEXT(A18,0)</f>
+        <v>equip_json.402</v>
       </c>
       <c r="I18" s="5">
         <v>4</v>
@@ -1445,8 +1445,8 @@
         <v>1</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f t="shared" ref="H19:H20" si="7">"item_json."&amp;TEXT(A19,0)</f>
-        <v>item_json.403</v>
+        <f>"equip_json."&amp;TEXT(A19,0)</f>
+        <v>equip_json.403</v>
       </c>
       <c r="I19" s="5">
         <v>4</v>
@@ -1475,8 +1475,8 @@
         <v>0</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="7"/>
-        <v>item_json.404</v>
+        <f>"equip_json."&amp;TEXT(A20,0)</f>
+        <v>equip_json.404</v>
       </c>
       <c r="I20" s="5">
         <v>4</v>
@@ -1505,8 +1505,8 @@
         <v>2</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.501</v>
+        <f>"equip_json."&amp;TEXT(A21,0)</f>
+        <v>equip_json.501</v>
       </c>
       <c r="I21" s="5">
         <v>5</v>
@@ -1535,8 +1535,8 @@
         <v>0</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.502</v>
+        <f>"equip_json."&amp;TEXT(A22,0)</f>
+        <v>equip_json.502</v>
       </c>
       <c r="I22" s="5">
         <v>5</v>
@@ -1565,8 +1565,8 @@
         <v>2</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f t="shared" ref="H23:H24" si="8">"item_json."&amp;TEXT(A23,0)</f>
-        <v>item_json.503</v>
+        <f>"equip_json."&amp;TEXT(A23,0)</f>
+        <v>equip_json.503</v>
       </c>
       <c r="I23" s="5">
         <v>5</v>
@@ -1595,8 +1595,8 @@
         <v>0</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f t="shared" si="8"/>
-        <v>item_json.504</v>
+        <f>"equip_json."&amp;TEXT(A24,0)</f>
+        <v>equip_json.504</v>
       </c>
       <c r="I24" s="5">
         <v>5</v>
@@ -1625,8 +1625,8 @@
         <v>2</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.601</v>
+        <f>"equip_json."&amp;TEXT(A25,0)</f>
+        <v>equip_json.601</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>62</v>
@@ -1655,8 +1655,8 @@
         <v>0</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.602</v>
+        <f>"equip_json."&amp;TEXT(A26,0)</f>
+        <v>equip_json.602</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>62</v>
@@ -1685,8 +1685,8 @@
         <v>2</v>
       </c>
       <c r="H27" s="4" t="str">
-        <f t="shared" ref="H27:H28" si="9">"item_json."&amp;TEXT(A27,0)</f>
-        <v>item_json.603</v>
+        <f>"equip_json."&amp;TEXT(A27,0)</f>
+        <v>equip_json.603</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>62</v>
@@ -1715,8 +1715,8 @@
         <v>0</v>
       </c>
       <c r="H28" s="4" t="str">
-        <f t="shared" si="9"/>
-        <v>item_json.604</v>
+        <f>"equip_json."&amp;TEXT(A28,0)</f>
+        <v>equip_json.604</v>
       </c>
       <c r="I28" s="5" t="s">
         <v>62</v>
@@ -1745,8 +1745,8 @@
         <v>0</v>
       </c>
       <c r="H29" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>item_json.701</v>
+        <f>"equip_json."&amp;TEXT(A29,0)</f>
+        <v>equip_json.701</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>62</v>
@@ -1775,8 +1775,8 @@
         <v>0</v>
       </c>
       <c r="H30" s="4" t="str">
-        <f t="shared" ref="H30:H32" si="10">"item_json."&amp;TEXT(A30,0)</f>
-        <v>item_json.702</v>
+        <f>"equip_json."&amp;TEXT(A30,0)</f>
+        <v>equip_json.702</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>62</v>
@@ -1805,8 +1805,8 @@
         <v>0</v>
       </c>
       <c r="H31" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>item_json.703</v>
+        <f>"equip_json."&amp;TEXT(A31,0)</f>
+        <v>equip_json.703</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>62</v>
@@ -1835,8 +1835,8 @@
         <v>0</v>
       </c>
       <c r="H32" s="4" t="str">
-        <f t="shared" si="10"/>
-        <v>item_json.704</v>
+        <f>"equip_json."&amp;TEXT(A32,0)</f>
+        <v>equip_json.704</v>
       </c>
       <c r="I32" s="5" t="s">
         <v>62</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="TEquip" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="@Types" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TEquip" sheetId="1" r:id="rId1"/>
+    <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,54 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
-  <si>
-    <t xml:space="preserve">Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SuitId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LoadPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Path</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoinType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[]string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ListSpliter: ";"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>SuitId</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>LoadPoint</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Skill</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>CoinType</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>[]string</t>
+  </si>
+  <si>
+    <t>RepeatCheck:true MakeIndex:true json:"id"</t>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
   </si>
   <si>
     <r>
@@ -78,23 +77,22 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">道具</t>
+      <t>道具</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">ID</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">装备名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">装备简介</t>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>装备名</t>
+  </si>
+  <si>
+    <t>装备简介</t>
   </si>
   <si>
     <r>
@@ -104,7 +102,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">装备类型：</t>
+      <t>装备类型：</t>
     </r>
     <r>
       <rPr>
@@ -113,7 +111,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -122,7 +120,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">头部</t>
+      <t>头部</t>
     </r>
     <r>
       <rPr>
@@ -131,7 +129,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2.</t>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
@@ -140,7 +138,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">上身</t>
+      <t>上身</t>
     </r>
     <r>
       <rPr>
@@ -149,7 +147,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -158,7 +156,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">下身</t>
+      <t>下身</t>
     </r>
     <r>
       <rPr>
@@ -167,7 +165,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4.</t>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -176,7 +174,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">鞋子</t>
+      <t>鞋子</t>
     </r>
     <r>
       <rPr>
@@ -185,7 +183,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5.</t>
+      <t>5.</t>
     </r>
     <r>
       <rPr>
@@ -194,7 +192,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">翅膀</t>
+      <t>翅膀</t>
     </r>
     <r>
       <rPr>
@@ -203,7 +201,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6.</t>
+      <t>6.</t>
     </r>
     <r>
       <rPr>
@@ -212,7 +210,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">手持</t>
+      <t>手持</t>
     </r>
     <r>
       <rPr>
@@ -221,7 +219,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7.</t>
+      <t>7.</t>
     </r>
     <r>
       <rPr>
@@ -230,7 +228,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">套装</t>
+      <t>套装</t>
     </r>
     <r>
       <rPr>
@@ -239,7 +237,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -248,7 +246,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">长衣</t>
+      <t>长衣</t>
     </r>
   </si>
   <si>
@@ -259,7 +257,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">套装</t>
+      <t>套装</t>
     </r>
     <r>
       <rPr>
@@ -268,7 +266,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">id</t>
+      <t>id</t>
     </r>
   </si>
   <si>
@@ -279,7 +277,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -288,7 +286,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">女</t>
+      <t>女</t>
     </r>
     <r>
       <rPr>
@@ -297,7 +295,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -306,7 +304,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">男</t>
+      <t>男</t>
     </r>
     <r>
       <rPr>
@@ -315,7 +313,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -324,134 +322,131 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">全部</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">挂载点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">图片路径</t>
-  </si>
-  <si>
-    <t xml:space="preserve">技能id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">价格</t>
-  </si>
-  <si>
-    <t xml:space="preserve">货币类型:1金币2钻石</t>
-  </si>
-  <si>
-    <t xml:space="preserve">头盔</t>
-  </si>
-  <si>
-    <t xml:space="preserve">装备获得效果</t>
-  </si>
-  <si>
-    <t xml:space="preserve">head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上衣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">裤子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">鞋子</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shoes1_1_00;shoes1_1_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TableName: "Equip" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ObjectType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FieldType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对象类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字段名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">字段类型</t>
-  </si>
-  <si>
-    <t xml:space="preserve">枚举值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">别名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">默认值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">特性</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注释</t>
+      <t>全部</t>
+    </r>
+  </si>
+  <si>
+    <t>挂载点</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+  </si>
+  <si>
+    <t>技能id</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>货币类型:1金币2钻石</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t>装备获得效果</t>
+  </si>
+  <si>
+    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04</t>
+  </si>
+  <si>
+    <t>上衣</t>
+  </si>
+  <si>
+    <t>Body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>shoes1_1_00;shoes1_1_01</t>
+  </si>
+  <si>
+    <t>TableName: "Equip" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>equip_json.103</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_json.203</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_json.303</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>equip_json.403</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
@@ -469,13 +464,18 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -493,7 +493,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -501,85 +501,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -638,39 +594,324 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="52.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="87.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.2"/>
+    <col min="1" max="2" width="10.44140625" style="1"/>
+    <col min="8" max="8" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -705,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -740,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -751,7 +992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -786,8 +1027,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -796,31 +1037,31 @@
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f aca="false">"equip_json."&amp;TEXT(A5,0)</f>
+        <f>"equip_json."&amp;TEXT(A5,0)</f>
         <v>equip_json.101</v>
       </c>
-      <c r="I5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="K5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -829,31 +1070,30 @@
       <c r="C6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="2" t="str">
-        <f aca="false">"equip_json."&amp;TEXT(A6,0)</f>
-        <v>equip_json.102</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="n">
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>201</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -862,31 +1102,31 @@
       <c r="C7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f aca="false">"equip_json."&amp;TEXT(A7,0)</f>
+        <f t="shared" ref="H5:H12" si="0">"equip_json."&amp;TEXT(A7,0)</f>
         <v>equip_json.201</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="6">
         <v>2</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="K7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>202</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -895,31 +1135,30 @@
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="2" t="str">
-        <f aca="false">"equip_json."&amp;TEXT(A8,0)</f>
-        <v>equip_json.202</v>
-      </c>
-      <c r="I8" s="6" t="n">
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="6">
         <v>2</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>301</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -928,31 +1167,31 @@
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>3</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f aca="false">"equip_json."&amp;TEXT(A9,0)</f>
+        <f t="shared" si="0"/>
         <v>equip_json.301</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="6">
         <v>3</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>302</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -961,31 +1200,30 @@
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="2" t="str">
-        <f aca="false">"equip_json."&amp;TEXT(A10,0)</f>
-        <v>equip_json.302</v>
-      </c>
-      <c r="I10" s="6" t="n">
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="6">
         <v>3</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="K10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>401</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -994,31 +1232,31 @@
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11">
         <v>4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f aca="false">"equip_json."&amp;TEXT(A11,0)</f>
+        <f t="shared" si="0"/>
         <v>equip_json.401</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="6">
         <v>4</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="K11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>402</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1027,34 +1265,33 @@
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>4</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="2" t="str">
-        <f aca="false">"equip_json."&amp;TEXT(A12,0)</f>
-        <v>equip_json.402</v>
-      </c>
-      <c r="I12" s="6" t="n">
+      <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,标准"Page &amp;P</oddFooter>
   </headerFooter>
@@ -1062,22 +1299,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.2"/>
+    <col min="1" max="1025" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
@@ -1089,7 +1323,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -1115,7 +1349,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
@@ -1142,12 +1376,8 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -353,9 +353,6 @@
     <t>上衣</t>
   </si>
   <si>
-    <t>Body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
-  </si>
-  <si>
     <t>裤子</t>
   </si>
   <si>
@@ -432,6 +429,10 @@
   </si>
   <si>
     <t>equip_json.403</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -902,12 +903,13 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.44140625" style="1"/>
+    <col min="7" max="7" width="28.88671875" customWidth="1"/>
     <col min="8" max="8" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1080,7 +1082,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
@@ -1109,10 +1111,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f t="shared" ref="H5:H12" si="0">"equip_json."&amp;TEXT(A7,0)</f>
+        <f t="shared" ref="H7:H11" si="0">"equip_json."&amp;TEXT(A7,0)</f>
         <v>equip_json.201</v>
       </c>
       <c r="I7" s="6">
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="6">
         <v>2</v>
@@ -1162,7 +1164,7 @@
         <v>301</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -1174,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1195,7 +1197,7 @@
         <v>302</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
@@ -1207,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="6">
         <v>3</v>
@@ -1227,7 +1229,7 @@
         <v>401</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -1239,7 +1241,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1260,7 +1262,7 @@
         <v>402</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1272,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I12" s="6">
         <v>4</v>
@@ -1313,7 +1315,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1325,54 +1327,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Id</t>
   </si>
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -900,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1096,40 +1100,25 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f t="shared" ref="H7:H11" si="0">"equip_json."&amp;TEXT(A7,0)</f>
-        <v>equip_json.201</v>
-      </c>
-      <c r="I7" s="6">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>10</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>30</v>
@@ -1141,13 +1130,14 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>53</v>
+      <c r="H8" s="2" t="str">
+        <f t="shared" ref="H8:H14" si="0">"equip_json."&amp;TEXT(A8,0)</f>
+        <v>equip_json.201</v>
       </c>
       <c r="I8" s="6">
         <v>2</v>
@@ -1161,133 +1151,219 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>301</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>31</v>
+        <v>202</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="6">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>203</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>301</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.301</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>302</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I12" s="6">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>303</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>401</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <v>4</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.401</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I14" s="6">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="J14">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>402</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I15" s="6">
         <v>4</v>
       </c>
-      <c r="J12">
+      <c r="J15">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>403</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -907,7 +907,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="2"/>
@@ -1193,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="2"/>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="2"/>
@@ -1359,7 +1359,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="2"/>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
   <si>
     <t>Id</t>
   </si>
@@ -341,27 +341,15 @@
     <t>货币类型:1金币2钻石</t>
   </si>
   <si>
-    <t>头盔</t>
-  </si>
-  <si>
     <t>装备获得效果</t>
   </si>
   <si>
     <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04</t>
   </si>
   <si>
-    <t>上衣</t>
-  </si>
-  <si>
-    <t>裤子</t>
-  </si>
-  <si>
     <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
   </si>
   <si>
-    <t>鞋子</t>
-  </si>
-  <si>
     <t>shoes1_1_00;shoes1_1_01</t>
   </si>
   <si>
@@ -414,22 +402,6 @@
   </si>
   <si>
     <t>注释</t>
-  </si>
-  <si>
-    <t>equip_json.103</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_json.203</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_json.303</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>equip_json.403</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
@@ -437,6 +409,143 @@
   </si>
   <si>
     <t>空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔6</t>
+  </si>
+  <si>
+    <t>头盔7</t>
+  </si>
+  <si>
+    <t>头盔8</t>
+  </si>
+  <si>
+    <t>头盔9</t>
+  </si>
+  <si>
+    <t>头盔10</t>
+  </si>
+  <si>
+    <t>上衣5</t>
+  </si>
+  <si>
+    <t>上衣6</t>
+  </si>
+  <si>
+    <t>上衣7</t>
+  </si>
+  <si>
+    <t>上衣8</t>
+  </si>
+  <si>
+    <t>上衣9</t>
+  </si>
+  <si>
+    <t>上衣10</t>
+  </si>
+  <si>
+    <t>裤子5</t>
+  </si>
+  <si>
+    <t>裤子6</t>
+  </si>
+  <si>
+    <t>裤子7</t>
+  </si>
+  <si>
+    <t>鞋子5</t>
+  </si>
+  <si>
+    <t>鞋子6</t>
+  </si>
+  <si>
+    <t>鞋子7</t>
+  </si>
+  <si>
+    <t>鞋子8</t>
+  </si>
+  <si>
+    <t>鞋子9</t>
+  </si>
+  <si>
+    <t>鞋子10</t>
+  </si>
+  <si>
+    <t>翅膀1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>翅膀2</t>
+  </si>
+  <si>
+    <t>翅膀3</t>
+  </si>
+  <si>
+    <t>翅膀4</t>
+  </si>
+  <si>
+    <t>翅膀5</t>
+  </si>
+  <si>
+    <t>手持1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手持2</t>
+  </si>
+  <si>
+    <t>Suit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy_suit2</t>
+  </si>
+  <si>
+    <t>boy_suit3</t>
+  </si>
+  <si>
+    <t>boy_suit4</t>
+  </si>
+  <si>
+    <t>girl_suit2</t>
+  </si>
+  <si>
+    <t>girl_suit3</t>
+  </si>
+  <si>
+    <t>girl_suit4</t>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>ing</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>eapon</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头盔5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -904,20 +1013,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.44140625" style="1"/>
-    <col min="7" max="7" width="28.88671875" customWidth="1"/>
-    <col min="8" max="8" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -951,8 +1062,11 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -986,8 +1100,11 @@
       <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -998,7 +1115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1033,28 +1150,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A5,0)</f>
-        <v>equip_json.101</v>
+        <f>"equip_json."&amp;TEXT(A5+4,0)</f>
+        <v>equip_json.105</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -1065,28 +1182,32 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>52</v>
+      <c r="H6" s="2" t="str">
+        <f t="shared" ref="H6:H28" si="0">"equip_json."&amp;TEXT(A6+4,0)</f>
+        <v>equip_json.106</v>
       </c>
       <c r="I6" s="6">
         <v>1</v>
@@ -1097,50 +1218,71 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.107</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" s="2" t="str">
-        <f t="shared" ref="H8:H14" si="0">"equip_json."&amp;TEXT(A8,0)</f>
-        <v>equip_json.201</v>
+        <f t="shared" si="0"/>
+        <v>equip_json.108</v>
       </c>
       <c r="I8" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -1148,165 +1290,197 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>202</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.109</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.110</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>201</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.205</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>202</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="6">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>10</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.206</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>203</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>301</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.301</v>
-      </c>
-      <c r="I11" s="6">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>302</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="6">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>303</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>401</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>34</v>
+      <c r="G14" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.401</v>
+        <v>equip_json.207</v>
       </c>
       <c r="I14" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <v>10</v>
@@ -1314,56 +1488,762 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>402</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>204</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>55</v>
+      <c r="G15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.208</v>
       </c>
       <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>205</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.209</v>
+      </c>
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>206</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.210</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>207</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>301</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.305</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>302</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.306</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>303</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.307</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>304</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>401</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.405</v>
+      </c>
+      <c r="I23" s="6">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>402</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.406</v>
+      </c>
+      <c r="I24" s="6">
+        <v>4</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>403</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="6"/>
+      <c r="B25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.407</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>404</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.408</v>
+      </c>
+      <c r="I26" s="6">
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>405</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.409</v>
+      </c>
+      <c r="I27" s="6">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>406</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.410</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>407</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>501</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A30,0)</f>
+        <v>equip_json.501</v>
+      </c>
+      <c r="I30" s="6">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>502</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f t="shared" ref="H31:H34" si="1">"equip_json."&amp;TEXT(A31,0)</f>
+        <v>equip_json.502</v>
+      </c>
+      <c r="I31" s="6">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>503</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>equip_json.503</v>
+      </c>
+      <c r="I32" s="6">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>10</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>504</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>equip_json.504</v>
+      </c>
+      <c r="I33" s="6">
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>505</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>equip_json.505</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>506</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>601</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A36,0)</f>
+        <v>equip_json.601</v>
+      </c>
+      <c r="I36" s="6">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>602</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f t="shared" ref="H37" si="2">"equip_json."&amp;TEXT(A37,0)</f>
+        <v>equip_json.602</v>
+      </c>
+      <c r="I37" s="6">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>603</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1391,7 +2271,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1403,54 +2283,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -546,6 +546,10 @@
   </si>
   <si>
     <t>头盔5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>图集名称</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1016,7 +1020,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1100,8 +1104,8 @@
       <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>11</v>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1148,6 +1152,9 @@
       </c>
       <c r="K4" s="3" t="s">
         <v>26</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="12015" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TEquip" sheetId="1" r:id="rId1"/>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1295,7 +1295,7 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="s">
         <v>81</v>
@@ -1331,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" t="s">
         <v>82</v>
@@ -1367,7 +1367,7 @@
         <v>10</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="s">
         <v>83</v>
@@ -1529,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
         <v>81</v>
@@ -1565,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
         <v>82</v>
@@ -1601,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="s">
         <v>83</v>
@@ -1889,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="s">
         <v>81</v>
@@ -1925,7 +1925,7 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="s">
         <v>82</v>
@@ -1961,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="s">
         <v>83</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
   <si>
     <t>Id</t>
   </si>
@@ -1017,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1213,7 +1213,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6:H28" si="0">"equip_json."&amp;TEXT(A6+4,0)</f>
+        <f t="shared" ref="H6:H26" si="0">"equip_json."&amp;TEXT(A6+4,0)</f>
         <v>equip_json.106</v>
       </c>
       <c r="I6" s="6">
@@ -1375,28 +1375,46 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.205</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -1412,7 +1430,7 @@
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.205</v>
+        <v>equip_json.206</v>
       </c>
       <c r="I12" s="6">
         <v>2</v>
@@ -1424,15 +1442,15 @@
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>27</v>
@@ -1448,7 +1466,7 @@
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.206</v>
+        <v>equip_json.207</v>
       </c>
       <c r="I13" s="6">
         <v>2</v>
@@ -1460,15 +1478,15 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
@@ -1477,14 +1495,14 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.207</v>
+        <v>equip_json.208</v>
       </c>
       <c r="I14" s="6">
         <v>2</v>
@@ -1493,18 +1511,18 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -1520,7 +1538,7 @@
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.208</v>
+        <v>equip_json.209</v>
       </c>
       <c r="I15" s="6">
         <v>2</v>
@@ -1532,15 +1550,15 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>27</v>
@@ -1556,7 +1574,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.209</v>
+        <v>equip_json.210</v>
       </c>
       <c r="I16" s="6">
         <v>2</v>
@@ -1568,69 +1586,87 @@
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>206</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>301</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.210</v>
+        <v>equip_json.305</v>
       </c>
       <c r="I17" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>207</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.306</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>27</v>
@@ -1646,7 +1682,7 @@
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.305</v>
+        <v>equip_json.307</v>
       </c>
       <c r="I19" s="6">
         <v>3</v>
@@ -1658,70 +1694,52 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>302</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.306</v>
-      </c>
-      <c r="I20" s="6">
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>79</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>303</v>
+        <v>401</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.307</v>
+        <v>equip_json.405</v>
       </c>
       <c r="I21" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -1730,33 +1748,51 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>304</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>402</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>equip_json.406</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>27</v>
@@ -1772,7 +1808,7 @@
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.405</v>
+        <v>equip_json.407</v>
       </c>
       <c r="I23" s="6">
         <v>4</v>
@@ -1784,15 +1820,15 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -1801,14 +1837,14 @@
         <v>4</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.406</v>
+        <v>equip_json.408</v>
       </c>
       <c r="I24" s="6">
         <v>4</v>
@@ -1817,18 +1853,18 @@
         <v>10</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>27</v>
@@ -1837,14 +1873,14 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.407</v>
+        <v>equip_json.409</v>
       </c>
       <c r="I25" s="6">
         <v>4</v>
@@ -1853,18 +1889,18 @@
         <v>10</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>27</v>
@@ -1880,7 +1916,7 @@
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.408</v>
+        <v>equip_json.410</v>
       </c>
       <c r="I26" s="6">
         <v>4</v>
@@ -1892,31 +1928,31 @@
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>405</v>
+        <v>501</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.409</v>
+        <f>"equip_json."&amp;TEXT(A27,0)</f>
+        <v>equip_json.501</v>
       </c>
       <c r="I27" s="6">
         <v>4</v>
@@ -1925,34 +1961,31 @@
         <v>10</v>
       </c>
       <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>406</v>
+        <v>502</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.410</v>
+        <f t="shared" ref="H28:H31" si="1">"equip_json."&amp;TEXT(A28,0)</f>
+        <v>equip_json.502</v>
       </c>
       <c r="I28" s="6">
         <v>4</v>
@@ -1961,36 +1994,48 @@
         <v>10</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28" t="s">
-        <v>83</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>407</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>503</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="6"/>
+      <c r="G29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>equip_json.503</v>
+      </c>
+      <c r="I29" s="6">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>27</v>
@@ -2005,8 +2050,8 @@
         <v>84</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A30,0)</f>
-        <v>equip_json.501</v>
+        <f t="shared" si="1"/>
+        <v>equip_json.504</v>
       </c>
       <c r="I30" s="6">
         <v>4</v>
@@ -2020,10 +2065,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>27</v>
@@ -2038,8 +2083,8 @@
         <v>84</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" ref="H31:H34" si="1">"equip_json."&amp;TEXT(A31,0)</f>
-        <v>equip_json.502</v>
+        <f t="shared" si="1"/>
+        <v>equip_json.505</v>
       </c>
       <c r="I31" s="6">
         <v>4</v>
@@ -2053,26 +2098,26 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>503</v>
+        <v>601</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.503</v>
+        <f>"equip_json."&amp;TEXT(A32,0)</f>
+        <v>equip_json.601</v>
       </c>
       <c r="I32" s="6">
         <v>4</v>
@@ -2086,26 +2131,26 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>504</v>
+        <v>602</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.504</v>
+        <f t="shared" ref="H33" si="2">"equip_json."&amp;TEXT(A33,0)</f>
+        <v>equip_json.602</v>
       </c>
       <c r="I33" s="6">
         <v>4</v>
@@ -2116,141 +2161,6 @@
       <c r="K33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>505</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.505</v>
-      </c>
-      <c r="I34" s="6">
-        <v>4</v>
-      </c>
-      <c r="J34">
-        <v>10</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>506</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>601</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36">
-        <v>6</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H36" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A36,0)</f>
-        <v>equip_json.601</v>
-      </c>
-      <c r="I36" s="6">
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <v>10</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>602</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37">
-        <v>6</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H37" s="2" t="str">
-        <f t="shared" ref="H37" si="2">"equip_json."&amp;TEXT(A37,0)</f>
-        <v>equip_json.602</v>
-      </c>
-      <c r="I37" s="6">
-        <v>4</v>
-      </c>
-      <c r="J37">
-        <v>10</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>603</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
@@ -408,10 +408,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>头盔6</t>
   </si>
   <si>
@@ -550,6 +546,68 @@
   </si>
   <si>
     <t>图集名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>;2;3;4</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>男套1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女套1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>男套头1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女套头1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy_suit5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_suit5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>男套衣1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女套衣1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>男套裤1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女套裤1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>男套鞋1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>女套鞋1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -648,6 +706,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1017,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1067,7 +1128,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1154,7 +1215,7 @@
         <v>26</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1162,7 +1223,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -1190,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1198,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -1213,7 +1274,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6:H26" si="0">"equip_json."&amp;TEXT(A6+4,0)</f>
+        <f t="shared" ref="H6:H31" si="0">"equip_json."&amp;TEXT(A6+4,0)</f>
         <v>equip_json.106</v>
       </c>
       <c r="I6" s="6">
@@ -1226,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1234,7 +1295,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -1262,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1270,7 +1331,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -1298,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1306,7 +1367,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -1334,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1342,7 +1403,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
@@ -1370,796 +1431,1064 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
+      <c r="L11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="L12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>201</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.205</v>
       </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="I13" s="6">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>202</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.206</v>
       </c>
-      <c r="I12" s="6">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="I14" s="6">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>203</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.207</v>
       </c>
-      <c r="I13" s="6">
-        <v>2</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>204</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="F14">
+      <c r="B16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.208</v>
       </c>
-      <c r="I14" s="6">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>10</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="I16" s="6">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>205</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="F15">
+      <c r="B17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.209</v>
       </c>
-      <c r="I15" s="6">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>10</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>206</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="F16">
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.210</v>
       </c>
-      <c r="I16" s="6">
-        <v>2</v>
-      </c>
-      <c r="J16">
-        <v>10</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6"/>
+      <c r="L19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>208</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="6"/>
+      <c r="L20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>301</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17">
+      <c r="B21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.305</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I21" s="6">
         <v>3</v>
       </c>
-      <c r="J17">
-        <v>10</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>302</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18">
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="H22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.306</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I22" s="6">
         <v>3</v>
       </c>
-      <c r="J18">
-        <v>10</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+      <c r="J22">
+        <v>10</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>303</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
+      <c r="B23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="2" t="str">
+      <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.307</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I23" s="6">
         <v>3</v>
       </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>304</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="B24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="6"/>
+      <c r="L24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>305</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="6"/>
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>401</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21">
+      <c r="B26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="2" t="str">
+      <c r="H26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.405</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I26" s="6">
         <v>4</v>
       </c>
-      <c r="J21">
-        <v>10</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>402</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22">
+      <c r="B27" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="2" t="str">
+      <c r="H27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.406</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I27" s="6">
         <v>4</v>
       </c>
-      <c r="J22">
-        <v>10</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="J27">
+        <v>10</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>403</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23">
+      <c r="B28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="2" t="str">
+      <c r="H28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.407</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I28" s="6">
         <v>4</v>
       </c>
-      <c r="J23">
-        <v>10</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="J28">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>404</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24">
+      <c r="B29" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="F29">
         <v>0</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="2" t="str">
+      <c r="H29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.408</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I29" s="6">
         <v>4</v>
       </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>405</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25">
+      <c r="B30" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="F30">
         <v>0</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="2" t="str">
+      <c r="H30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.409</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I30" s="6">
         <v>4</v>
       </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>406</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26">
+      <c r="B31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="F26">
+      <c r="F31">
         <v>0</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="2" t="str">
+      <c r="H31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>equip_json.410</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I31" s="6">
         <v>4</v>
       </c>
-      <c r="J26">
-        <v>10</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>407</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="6"/>
+      <c r="L32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>408</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="6"/>
+      <c r="L33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>501</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>501</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="H34" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A34,0)</f>
+        <v>equip_json.501</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>502</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27">
+      <c r="C35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
         <v>5</v>
       </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A27,0)</f>
-        <v>equip_json.501</v>
-      </c>
-      <c r="I27" s="6">
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" ref="H35:H38" si="1">"equip_json."&amp;TEXT(A35,0)</f>
+        <v>equip_json.502</v>
+      </c>
+      <c r="I35" s="6">
         <v>4</v>
       </c>
-      <c r="J27">
-        <v>10</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>502</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>503</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28">
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36">
         <v>5</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H28" s="2" t="str">
-        <f t="shared" ref="H28:H31" si="1">"equip_json."&amp;TEXT(A28,0)</f>
-        <v>equip_json.502</v>
-      </c>
-      <c r="I28" s="6">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>10</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>503</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="2" t="str">
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H36" s="2" t="str">
         <f t="shared" si="1"/>
         <v>equip_json.503</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I36" s="6">
         <v>4</v>
       </c>
-      <c r="J29">
-        <v>10</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>504</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30">
+      <c r="B37" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="2" t="str">
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>equip_json.504</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I37" s="6">
         <v>4</v>
       </c>
-      <c r="J30">
-        <v>10</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>505</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31">
+      <c r="B38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
         <v>5</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="2" t="str">
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="2" t="str">
         <f t="shared" si="1"/>
         <v>equip_json.505</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I38" s="6">
         <v>4</v>
       </c>
-      <c r="J31">
-        <v>10</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>601</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A39,0)</f>
+        <v>equip_json.601</v>
+      </c>
+      <c r="I39" s="6">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>602</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32">
+      <c r="C40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40">
         <v>6</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A32,0)</f>
-        <v>equip_json.601</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f t="shared" ref="H40" si="2">"equip_json."&amp;TEXT(A40,0)</f>
+        <v>equip_json.602</v>
+      </c>
+      <c r="I40" s="6">
         <v>4</v>
       </c>
-      <c r="J32">
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>602</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="2" t="str">
-        <f t="shared" ref="H33" si="2">"equip_json."&amp;TEXT(A33,0)</f>
-        <v>equip_json.602</v>
-      </c>
-      <c r="I33" s="6">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>10</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
+      <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>701</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A41,0)</f>
+        <v>equip_json.701</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>702</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="2" t="str">
+        <f t="shared" ref="H42" si="3">"equip_json."&amp;TEXT(A42,0)</f>
+        <v>equip_json.702</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42">
+        <v>50</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -505,7 +505,7 @@
     <t xml:space="preserve">男套1</t>
   </si>
   <si>
-    <t xml:space="preserve">head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01;</t>
+    <t xml:space="preserve">head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
   </si>
   <si>
     <t xml:space="preserve">1;2;3;4</t>
@@ -789,8 +789,8 @@
   </sheetPr>
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="1035" windowWidth="26115" windowHeight="11250" tabRatio="500"/>
+    <workbookView xWindow="-2565" yWindow="150" windowWidth="32325" windowHeight="11250" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TEquip" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -419,9 +419,6 @@
     <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
   </si>
   <si>
-    <t>1;2;3;4</t>
-  </si>
-  <si>
     <t>TableName: "Equip" Package: "table" CSClassHeader: "[System.Serializable]"</t>
   </si>
   <si>
@@ -578,6 +575,10 @@
   </si>
   <si>
     <t>少女鞋(蓝）</t>
+  </si>
+  <si>
+    <t>6;7;8;9;10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1041,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1187,7 +1188,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -1209,7 +1210,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1223,7 +1224,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
@@ -1242,13 +1243,13 @@
         <v>equip_json.106</v>
       </c>
       <c r="I6" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" t="s">
         <v>32</v>
@@ -1259,7 +1260,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
@@ -1278,13 +1279,13 @@
         <v>equip_json.107</v>
       </c>
       <c r="I7" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="s">
         <v>33</v>
@@ -1295,7 +1296,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>29</v>
@@ -1317,10 +1318,10 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>34</v>
@@ -1331,7 +1332,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
@@ -1350,10 +1351,10 @@
         <v>equip_json.109</v>
       </c>
       <c r="I9" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1367,7 +1368,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
@@ -1386,10 +1387,10 @@
         <v>equip_json.110</v>
       </c>
       <c r="I10" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1459,7 +1460,7 @@
         <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1481,7 +1482,7 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1495,7 +1496,7 @@
         <v>202</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1514,13 +1515,13 @@
         <v>equip_json.206</v>
       </c>
       <c r="I14" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="s">
         <v>32</v>
@@ -1531,7 +1532,7 @@
         <v>203</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
@@ -1550,13 +1551,13 @@
         <v>equip_json.207</v>
       </c>
       <c r="I15" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J15">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="s">
         <v>33</v>
@@ -1567,7 +1568,7 @@
         <v>204</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
@@ -1589,10 +1590,10 @@
         <v>2</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>34</v>
@@ -1603,7 +1604,7 @@
         <v>205</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
@@ -1622,10 +1623,10 @@
         <v>equip_json.209</v>
       </c>
       <c r="I17" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1639,7 +1640,7 @@
         <v>206</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
@@ -1658,10 +1659,10 @@
         <v>equip_json.210</v>
       </c>
       <c r="I18" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J18">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1731,7 +1732,7 @@
         <v>301</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
@@ -1753,7 +1754,7 @@
         <v>3</v>
       </c>
       <c r="J21">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1767,7 +1768,7 @@
         <v>302</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -1786,13 +1787,13 @@
         <v>equip_json.306</v>
       </c>
       <c r="I22" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" t="s">
         <v>32</v>
@@ -1803,7 +1804,7 @@
         <v>303</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>29</v>
@@ -1822,13 +1823,13 @@
         <v>equip_json.307</v>
       </c>
       <c r="I23" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23" t="s">
         <v>33</v>
@@ -1895,7 +1896,7 @@
         <v>401</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
@@ -1917,7 +1918,7 @@
         <v>4</v>
       </c>
       <c r="J26">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -1931,7 +1932,7 @@
         <v>402</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -1950,13 +1951,13 @@
         <v>equip_json.406</v>
       </c>
       <c r="I27" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J27">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="s">
         <v>32</v>
@@ -1967,7 +1968,7 @@
         <v>403</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
@@ -1986,13 +1987,13 @@
         <v>equip_json.407</v>
       </c>
       <c r="I28" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J28">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="s">
         <v>33</v>
@@ -2003,7 +2004,7 @@
         <v>404</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
@@ -2025,10 +2026,10 @@
         <v>4</v>
       </c>
       <c r="J29">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29" t="s">
         <v>34</v>
@@ -2039,7 +2040,7 @@
         <v>405</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>29</v>
@@ -2058,10 +2059,10 @@
         <v>equip_json.409</v>
       </c>
       <c r="I30" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2075,7 +2076,7 @@
         <v>406</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
@@ -2094,10 +2095,10 @@
         <v>equip_json.410</v>
       </c>
       <c r="I31" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J31">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2167,7 +2168,7 @@
         <v>501</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>29</v>
@@ -2186,13 +2187,13 @@
         <v>equip_json.501</v>
       </c>
       <c r="I34" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J34">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2200,7 +2201,7 @@
         <v>502</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>29</v>
@@ -2219,13 +2220,13 @@
         <v>equip_json.502</v>
       </c>
       <c r="I35" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J35">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2233,7 +2234,7 @@
         <v>503</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>29</v>
@@ -2252,13 +2253,13 @@
         <v>equip_json.503</v>
       </c>
       <c r="I36" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J36">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2266,7 +2267,7 @@
         <v>504</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>29</v>
@@ -2285,13 +2286,13 @@
         <v>equip_json.504</v>
       </c>
       <c r="I37" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2299,7 +2300,7 @@
         <v>601</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>29</v>
@@ -2318,13 +2319,13 @@
         <v>equip_json.601</v>
       </c>
       <c r="I38" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J38">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2332,7 +2333,7 @@
         <v>602</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>29</v>
@@ -2351,13 +2352,13 @@
         <v>equip_json.602</v>
       </c>
       <c r="I39" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J39">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2365,7 +2366,7 @@
         <v>701</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>29</v>
@@ -2384,10 +2385,10 @@
         <v>equip_json.701</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="J40">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -2401,7 +2402,7 @@
         <v>702</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>29</v>
@@ -2420,10 +2421,10 @@
         <v>equip_json.702</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="J41">
-        <v>50</v>
+        <v>20000</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -2458,7 +2459,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2470,54 +2471,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="12015" tabRatio="500"/>
+    <workbookView xWindow="30" yWindow="1035" windowWidth="26115" windowHeight="11250" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TEquip" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>CoinType</t>
+  </si>
+  <si>
+    <t>Suit</t>
   </si>
   <si>
     <t>int32</t>
@@ -326,7 +329,7 @@
     </r>
   </si>
   <si>
-    <t>挂载点</t>
+    <t>挂载点；套装要把所有的挂载点全部填进去</t>
   </si>
   <si>
     <t>图片路径</t>
@@ -341,18 +344,84 @@
     <t>货币类型:1金币2钻石</t>
   </si>
   <si>
+    <t>图集名称</t>
+  </si>
+  <si>
     <t>装备获得效果</t>
   </si>
   <si>
     <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04</t>
   </si>
   <si>
+    <t>boy_suit2</t>
+  </si>
+  <si>
+    <t>boy_suit3</t>
+  </si>
+  <si>
+    <t>boy_suit4</t>
+  </si>
+  <si>
+    <t>girl_suit2</t>
+  </si>
+  <si>
+    <t>girl_suit3</t>
+  </si>
+  <si>
+    <t>girl_suit4</t>
+  </si>
+  <si>
+    <t>男套头1</t>
+  </si>
+  <si>
+    <t>boy_suit5</t>
+  </si>
+  <si>
+    <t>女套头1</t>
+  </si>
+  <si>
+    <t>girl_suit5</t>
+  </si>
+  <si>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
+  </si>
+  <si>
+    <t>男套衣1</t>
+  </si>
+  <si>
+    <t>女套衣1</t>
+  </si>
+  <si>
     <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
   </si>
   <si>
+    <t>男套裤1</t>
+  </si>
+  <si>
+    <t>女套裤1</t>
+  </si>
+  <si>
     <t>shoes1_1_00;shoes1_1_01</t>
   </si>
   <si>
+    <t>男套鞋1</t>
+  </si>
+  <si>
+    <t>女套鞋1</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
+  </si>
+  <si>
+    <t>1;2;3;4</t>
+  </si>
+  <si>
     <t>TableName: "Equip" Package: "table" CSClassHeader: "[System.Serializable]"</t>
   </si>
   <si>
@@ -404,153 +473,111 @@
     <t>注释</t>
   </si>
   <si>
-    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔6</t>
-  </si>
-  <si>
-    <t>头盔7</t>
-  </si>
-  <si>
-    <t>头盔8</t>
-  </si>
-  <si>
-    <t>头盔9</t>
-  </si>
-  <si>
-    <t>头盔10</t>
-  </si>
-  <si>
-    <t>上衣5</t>
-  </si>
-  <si>
-    <t>上衣6</t>
-  </si>
-  <si>
-    <t>上衣7</t>
-  </si>
-  <si>
-    <t>上衣8</t>
-  </si>
-  <si>
-    <t>上衣9</t>
-  </si>
-  <si>
-    <t>上衣10</t>
-  </si>
-  <si>
-    <t>裤子5</t>
-  </si>
-  <si>
-    <t>裤子6</t>
-  </si>
-  <si>
-    <t>裤子7</t>
-  </si>
-  <si>
-    <t>鞋子5</t>
-  </si>
-  <si>
-    <t>鞋子6</t>
-  </si>
-  <si>
-    <t>鞋子7</t>
-  </si>
-  <si>
-    <t>鞋子8</t>
-  </si>
-  <si>
-    <t>鞋子9</t>
-  </si>
-  <si>
-    <t>鞋子10</t>
-  </si>
-  <si>
-    <t>翅膀1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>翅膀2</t>
-  </si>
-  <si>
-    <t>翅膀3</t>
-  </si>
-  <si>
-    <t>翅膀4</t>
-  </si>
-  <si>
-    <t>翅膀5</t>
-  </si>
-  <si>
-    <t>手持1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>手持2</t>
-  </si>
-  <si>
-    <t>Suit</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>boy_suit2</t>
-  </si>
-  <si>
-    <t>boy_suit3</t>
-  </si>
-  <si>
-    <t>boy_suit4</t>
-  </si>
-  <si>
-    <t>girl_suit2</t>
-  </si>
-  <si>
-    <t>girl_suit3</t>
-  </si>
-  <si>
-    <t>girl_suit4</t>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>ing</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>eapon</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头盔5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>图集名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>银</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术扑克</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士金发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士绿发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士蓝发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女橘发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女紫发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女蓝发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装(红）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装(绿）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装(蓝）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连衣裙(红）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连衣裙(橘）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连衣裙(蓝）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士裤(红）</t>
+  </si>
+  <si>
+    <t>绅士裤(绿）</t>
+  </si>
+  <si>
+    <t>绅士裤(蓝）</t>
+  </si>
+  <si>
+    <t>皮鞋(紫）</t>
+  </si>
+  <si>
+    <t>皮鞋(蓝）</t>
+  </si>
+  <si>
+    <t>皮鞋(白）</t>
+  </si>
+  <si>
+    <t>少女鞋(紫）</t>
+  </si>
+  <si>
+    <t>少女鞋(黑）</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝）</t>
   </si>
 </sst>
 </file>
@@ -560,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
@@ -583,11 +610,6 @@
       <sz val="12"/>
       <name val="Verdana"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -642,10 +664,10 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1017,19 +1039,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" style="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="65.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="65.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="1025" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1067,94 +1092,94 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1162,10 +1187,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1174,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A5+4,0)</f>
+        <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
         <v>equip_json.105</v>
       </c>
       <c r="I5" s="6">
@@ -1190,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1198,10 +1223,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1210,10 +1235,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f t="shared" ref="H6:H26" si="0">"equip_json."&amp;TEXT(A6+4,0)</f>
+        <f t="shared" si="0"/>
         <v>equip_json.106</v>
       </c>
       <c r="I6" s="6">
@@ -1226,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1234,10 +1259,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1246,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1262,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1270,10 +1295,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1282,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1298,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1306,10 +1331,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1318,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1334,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1342,10 +1367,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1354,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1370,90 +1395,74 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.205</v>
-      </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="6"/>
       <c r="L11" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.206</v>
-      </c>
-      <c r="I12" s="6">
-        <v>2</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="6"/>
       <c r="L12" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1462,11 +1471,11 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.207</v>
+        <f t="shared" ref="H13:H18" si="1">"equip_json."&amp;TEXT(A13+4,0)</f>
+        <v>equip_json.205</v>
       </c>
       <c r="I13" s="6">
         <v>2</v>
@@ -1478,31 +1487,31 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.208</v>
+        <f t="shared" si="1"/>
+        <v>equip_json.206</v>
       </c>
       <c r="I14" s="6">
         <v>2</v>
@@ -1511,34 +1520,34 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.209</v>
+        <f t="shared" si="1"/>
+        <v>equip_json.207</v>
       </c>
       <c r="I15" s="6">
         <v>2</v>
@@ -1547,21 +1556,21 @@
         <v>10</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1570,11 +1579,11 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.210</v>
+        <f t="shared" si="1"/>
+        <v>equip_json.208</v>
       </c>
       <c r="I16" s="6">
         <v>2</v>
@@ -1586,160 +1595,162 @@
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>301</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>61</v>
+        <v>205</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.305</v>
+        <f t="shared" si="1"/>
+        <v>equip_json.209</v>
       </c>
       <c r="I17" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>302</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>62</v>
+        <v>206</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.306</v>
+        <f t="shared" si="1"/>
+        <v>equip_json.210</v>
       </c>
       <c r="I18" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
         <v>10</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>303</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>207</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.307</v>
-      </c>
-      <c r="I19" s="6">
-        <v>3</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
+      <c r="G19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="6"/>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>304</v>
+        <v>208</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
       <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="6"/>
+      <c r="L20" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>401</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>64</v>
+        <v>301</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.405</v>
+        <f>"equip_json."&amp;TEXT(A21+4,0)</f>
+        <v>equip_json.305</v>
       </c>
       <c r="I21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21">
         <v>10</v>
@@ -1748,34 +1759,34 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>402</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>65</v>
+        <v>302</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.406</v>
+        <f>"equip_json."&amp;TEXT(A22+4,0)</f>
+        <v>equip_json.306</v>
       </c>
       <c r="I22" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J22">
         <v>10</v>
@@ -1784,34 +1795,34 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>403</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>66</v>
+        <v>303</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.407</v>
+        <f>"equip_json."&amp;TEXT(A23+4,0)</f>
+        <v>equip_json.307</v>
       </c>
       <c r="I23" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -1820,103 +1831,87 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>404</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>67</v>
+        <v>304</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.408</v>
-      </c>
-      <c r="I24" s="6">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <v>10</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="6"/>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>405</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>68</v>
+        <v>305</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.409</v>
-      </c>
-      <c r="I25" s="6">
-        <v>4</v>
-      </c>
-      <c r="J25">
-        <v>10</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="6"/>
       <c r="L25" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>406</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>69</v>
+        <v>401</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.410</v>
+        <f t="shared" ref="H26:H31" si="2">"equip_json."&amp;TEXT(A26+4,0)</f>
+        <v>equip_json.405</v>
       </c>
       <c r="I26" s="6">
         <v>4</v>
@@ -1925,34 +1920,34 @@
         <v>10</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>501</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>70</v>
+        <v>402</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A27,0)</f>
-        <v>equip_json.501</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.406</v>
       </c>
       <c r="I27" s="6">
         <v>4</v>
@@ -1963,29 +1958,32 @@
       <c r="K27">
         <v>1</v>
       </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>502</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>71</v>
+        <v>403</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>84</v>
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" ref="H28:H31" si="1">"equip_json."&amp;TEXT(A28,0)</f>
-        <v>equip_json.502</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.407</v>
       </c>
       <c r="I28" s="6">
         <v>4</v>
@@ -1996,29 +1994,32 @@
       <c r="K28">
         <v>1</v>
       </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>503</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>72</v>
+        <v>404</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.503</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.408</v>
       </c>
       <c r="I29" s="6">
         <v>4</v>
@@ -2027,31 +2028,34 @@
         <v>10</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>504</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>73</v>
+        <v>405</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.504</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.409</v>
       </c>
       <c r="I30" s="6">
         <v>4</v>
@@ -2060,31 +2064,34 @@
         <v>10</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>505</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>74</v>
+        <v>406</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>84</v>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.505</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.410</v>
       </c>
       <c r="I31" s="6">
         <v>4</v>
@@ -2093,77 +2100,340 @@
         <v>10</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
+        <v>407</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="6"/>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>408</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="6"/>
+      <c r="L33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>501</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f t="shared" ref="H34:H41" si="3">"equip_json."&amp;TEXT(A34,0)</f>
+        <v>equip_json.501</v>
+      </c>
+      <c r="I34" s="6">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>502</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>equip_json.502</v>
+      </c>
+      <c r="I35" s="6">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>503</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>equip_json.503</v>
+      </c>
+      <c r="I36" s="6">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>504</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>equip_json.504</v>
+      </c>
+      <c r="I37" s="6">
+        <v>4</v>
+      </c>
+      <c r="J37">
+        <v>10</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>601</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>equip_json.601</v>
+      </c>
+      <c r="I38" s="6">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>602</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32">
+      <c r="C39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39">
         <v>6</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H32" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A32,0)</f>
-        <v>equip_json.601</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>equip_json.602</v>
+      </c>
+      <c r="I39" s="6">
         <v>4</v>
       </c>
-      <c r="J32">
-        <v>10</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>602</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="2" t="str">
-        <f t="shared" ref="H33" si="2">"equip_json."&amp;TEXT(A33,0)</f>
-        <v>equip_json.602</v>
-      </c>
-      <c r="I33" s="6">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>10</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>701</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>equip_json.701</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>702</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>equip_json.702</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41">
+        <v>50</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+      <c r="L41" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -2188,7 +2458,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2200,58 +2470,58 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>Id</t>
   </si>
@@ -371,43 +371,19 @@
     <t>girl_suit4</t>
   </si>
   <si>
-    <t>男套头1</t>
-  </si>
-  <si>
     <t>boy_suit5</t>
   </si>
   <si>
-    <t>女套头1</t>
-  </si>
-  <si>
     <t>girl_suit5</t>
   </si>
   <si>
     <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
   </si>
   <si>
-    <t>男套衣1</t>
-  </si>
-  <si>
-    <t>女套衣1</t>
-  </si>
-  <si>
     <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
   </si>
   <si>
-    <t>男套裤1</t>
-  </si>
-  <si>
-    <t>女套裤1</t>
-  </si>
-  <si>
     <t>shoes1_1_00;shoes1_1_01</t>
-  </si>
-  <si>
-    <t>男套鞋1</t>
-  </si>
-  <si>
-    <t>女套鞋1</t>
   </si>
   <si>
     <t>wing</t>
@@ -1040,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1188,7 +1164,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -1224,7 +1200,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
@@ -1260,7 +1236,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
@@ -1296,7 +1272,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>29</v>
@@ -1332,7 +1308,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
@@ -1368,7 +1344,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
@@ -1401,66 +1377,82 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>107</v>
+        <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f t="shared" ref="H11:H16" si="1">"equip_json."&amp;TEXT(A11+4,0)</f>
+        <v>equip_json.205</v>
+      </c>
+      <c r="I11" s="6">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>10000</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
       <c r="L11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>108</v>
+        <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>equip_json.206</v>
+      </c>
+      <c r="I12" s="6">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>5000</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
       <c r="L12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1472,31 +1464,31 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f t="shared" ref="H13:H18" si="1">"equip_json."&amp;TEXT(A13+4,0)</f>
-        <v>equip_json.205</v>
+        <f t="shared" si="1"/>
+        <v>equip_json.207</v>
       </c>
       <c r="I13" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1505,34 +1497,34 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>equip_json.206</v>
+        <v>equip_json.208</v>
       </c>
       <c r="I14" s="6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
@@ -1541,14 +1533,14 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>equip_json.207</v>
+        <v>equip_json.209</v>
       </c>
       <c r="I15" s="6">
         <v>7</v>
@@ -1560,15 +1552,15 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
@@ -1580,86 +1572,86 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>equip_json.208</v>
+        <v>equip_json.210</v>
       </c>
       <c r="I16" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J16">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>205</v>
+        <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.209</v>
+        <f>"equip_json."&amp;TEXT(A17+4,0)</f>
+        <v>equip_json.305</v>
       </c>
       <c r="I17" s="6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J17">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>41</v>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.210</v>
+        <f>"equip_json."&amp;TEXT(A18+4,0)</f>
+        <v>equip_json.306</v>
       </c>
       <c r="I18" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J18">
         <v>5000</v>
@@ -1668,126 +1660,142 @@
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="6"/>
+      <c r="G19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A19+4,0)</f>
+        <v>equip_json.307</v>
+      </c>
+      <c r="I19" s="6">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>5000</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>208</v>
+        <v>401</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="6"/>
+      <c r="H20" s="2" t="str">
+        <f t="shared" ref="H20:H25" si="2">"equip_json."&amp;TEXT(A20+4,0)</f>
+        <v>equip_json.405</v>
+      </c>
+      <c r="I20" s="6">
+        <v>4</v>
+      </c>
+      <c r="J20">
+        <v>10000</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
       <c r="L20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A21+4,0)</f>
-        <v>equip_json.305</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.406</v>
       </c>
       <c r="I21" s="6">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J21">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>302</v>
+        <v>403</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A22+4,0)</f>
-        <v>equip_json.306</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.407</v>
       </c>
       <c r="I22" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J22">
         <v>5000</v>
@@ -1796,162 +1804,175 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A23+4,0)</f>
-        <v>equip_json.307</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.408</v>
       </c>
       <c r="I23" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>equip_json.409</v>
+      </c>
+      <c r="I24" s="6">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>5000</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
       <c r="L24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>305</v>
+        <v>406</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>equip_json.410</v>
+      </c>
+      <c r="I25" s="6">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>5000</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
       <c r="L25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>401</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>501</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" ref="H26:H31" si="2">"equip_json."&amp;TEXT(A26+4,0)</f>
-        <v>equip_json.405</v>
+        <f t="shared" ref="H26:H33" si="3">"equip_json."&amp;TEXT(A26,0)</f>
+        <v>equip_json.501</v>
       </c>
       <c r="I26" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>402</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>94</v>
+        <v>502</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.406</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.502</v>
       </c>
       <c r="I27" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J27">
         <v>5000</v>
@@ -1959,35 +1980,32 @@
       <c r="K27">
         <v>2</v>
       </c>
-      <c r="L27" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>403</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>95</v>
+        <v>503</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.407</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.503</v>
       </c>
       <c r="I28" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J28">
         <v>5000</v>
@@ -1995,71 +2013,65 @@
       <c r="K28">
         <v>2</v>
       </c>
-      <c r="L28" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>404</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>504</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.408</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.504</v>
       </c>
       <c r="I29" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>405</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>97</v>
+        <v>601</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.409</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.601</v>
       </c>
       <c r="I30" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J30">
         <v>5000</v>
@@ -2067,35 +2079,32 @@
       <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>406</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>98</v>
+        <v>602</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.410</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.602</v>
       </c>
       <c r="I31" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <v>5000</v>
@@ -2103,334 +2112,77 @@
       <c r="K31">
         <v>2</v>
       </c>
-      <c r="L31" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>407</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>701</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="6"/>
+      <c r="G32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>equip_json.701</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32">
+        <v>20000</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
       <c r="L32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>408</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>702</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="6"/>
-      <c r="L33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>501</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f t="shared" ref="H34:H41" si="3">"equip_json."&amp;TEXT(A34,0)</f>
-        <v>equip_json.501</v>
-      </c>
-      <c r="I34" s="6">
-        <v>5</v>
-      </c>
-      <c r="J34">
-        <v>5000</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>502</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.502</v>
-      </c>
-      <c r="I35" s="6">
-        <v>10</v>
-      </c>
-      <c r="J35">
-        <v>5000</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>503</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.503</v>
-      </c>
-      <c r="I36" s="6">
-        <v>10</v>
-      </c>
-      <c r="J36">
-        <v>5000</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>504</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.504</v>
-      </c>
-      <c r="I37" s="6">
-        <v>5</v>
-      </c>
-      <c r="J37">
-        <v>5000</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>601</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H38" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.601</v>
-      </c>
-      <c r="I38" s="6">
-        <v>10</v>
-      </c>
-      <c r="J38">
-        <v>5000</v>
-      </c>
-      <c r="K38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>602</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39">
-        <v>6</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H39" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.602</v>
-      </c>
-      <c r="I39" s="6">
-        <v>10</v>
-      </c>
-      <c r="J39">
-        <v>5000</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>701</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.701</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J40">
-        <v>20000</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>702</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="2" t="str">
+      <c r="G33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.702</v>
       </c>
-      <c r="I41" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J41">
+      <c r="I33" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33">
         <v>20000</v>
       </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41" t="s">
-        <v>40</v>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2459,7 +2211,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2471,54 +2223,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
   <si>
     <t>Id</t>
   </si>
@@ -554,6 +554,14 @@
   </si>
   <si>
     <t>6;7;8;9;10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1027,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1027,7 +1035,7 @@
     <col min="1" max="2" width="10.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="65.21875" customWidth="1"/>
+    <col min="7" max="7" width="223.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="10" width="10.44140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
@@ -1500,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1536,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1572,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1608,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="H17" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A17+4,0)</f>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
   <si>
     <t>Id</t>
   </si>
@@ -562,6 +562,14 @@
   </si>
   <si>
     <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾利欧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy_suit6</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1024,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1943,7 +1951,7 @@
         <v>42</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" ref="H26:H33" si="3">"equip_json."&amp;TEXT(A26,0)</f>
+        <f t="shared" ref="H26:H34" si="3">"equip_json."&amp;TEXT(A26,0)</f>
         <v>equip_json.501</v>
       </c>
       <c r="I26" s="6">
@@ -2191,6 +2199,42 @@
       </c>
       <c r="L33" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>703</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A34,0)</f>
+        <v>equip_json.703</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34">
+        <v>20000</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -502,57 +502,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>绅士装(红）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士装(绿）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士装(蓝）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙(红）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙(橘）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙(蓝）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士裤(红）</t>
-  </si>
-  <si>
-    <t>绅士裤(绿）</t>
-  </si>
-  <si>
-    <t>绅士裤(蓝）</t>
-  </si>
-  <si>
-    <t>皮鞋(紫）</t>
-  </si>
-  <si>
-    <t>皮鞋(蓝）</t>
-  </si>
-  <si>
-    <t>皮鞋(白）</t>
-  </si>
-  <si>
-    <t>少女鞋(紫）</t>
-  </si>
-  <si>
-    <t>少女鞋(黑）</t>
-  </si>
-  <si>
-    <t>少女鞋(蓝）</t>
-  </si>
-  <si>
     <t>6;7;8;9;10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -571,6 +520,51 @@
   <si>
     <t>boy_suit6</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装(红)</t>
+  </si>
+  <si>
+    <t>绅士装(绿)</t>
+  </si>
+  <si>
+    <t>绅士装(蓝)</t>
+  </si>
+  <si>
+    <t>连衣裙(红)</t>
+  </si>
+  <si>
+    <t>连衣裙(橘)</t>
+  </si>
+  <si>
+    <t>连衣裙(蓝)</t>
+  </si>
+  <si>
+    <t>绅士裤(红)</t>
+  </si>
+  <si>
+    <t>绅士裤(绿)</t>
+  </si>
+  <si>
+    <t>绅士裤(蓝)</t>
+  </si>
+  <si>
+    <t>皮鞋(紫)</t>
+  </si>
+  <si>
+    <t>皮鞋(蓝)</t>
+  </si>
+  <si>
+    <t>皮鞋(白)</t>
+  </si>
+  <si>
+    <t>少女鞋(紫)</t>
+  </si>
+  <si>
+    <t>少女鞋(黑)</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝)</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1396,7 +1390,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
@@ -1432,7 +1426,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
@@ -1468,7 +1462,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1504,7 +1498,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1516,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1540,7 +1534,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
@@ -1552,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1576,7 +1570,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
@@ -1588,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1612,7 +1606,7 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
@@ -1624,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H17" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A17+4,0)</f>
@@ -1648,7 +1642,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
@@ -1684,7 +1678,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -1720,7 +1714,7 @@
         <v>401</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
@@ -1756,7 +1750,7 @@
         <v>402</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
@@ -1792,7 +1786,7 @@
         <v>403</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -1828,7 +1822,7 @@
         <v>404</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>29</v>
@@ -1864,7 +1858,7 @@
         <v>405</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
@@ -1900,7 +1894,7 @@
         <v>406</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
@@ -1951,7 +1945,7 @@
         <v>42</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" ref="H26:H34" si="3">"equip_json."&amp;TEXT(A26,0)</f>
+        <f t="shared" ref="H26:H33" si="3">"equip_json."&amp;TEXT(A26,0)</f>
         <v>equip_json.501</v>
       </c>
       <c r="I26" s="6">
@@ -2153,7 +2147,7 @@
         <v>equip_json.701</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J32">
         <v>20000</v>
@@ -2189,7 +2183,7 @@
         <v>equip_json.702</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J33">
         <v>20000</v>
@@ -2206,7 +2200,7 @@
         <v>703</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>29</v>
@@ -2225,7 +2219,7 @@
         <v>equip_json.703</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="J34">
         <v>20000</v>
@@ -2234,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
   <si>
     <t>Id</t>
   </si>
@@ -350,9 +350,6 @@
     <t>装备获得效果</t>
   </si>
   <si>
-    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04</t>
-  </si>
-  <si>
     <t>boy_suit2</t>
   </si>
   <si>
@@ -537,9 +534,6 @@
     <t>连衣裙(橘)</t>
   </si>
   <si>
-    <t>连衣裙(蓝)</t>
-  </si>
-  <si>
     <t>绅士裤(红)</t>
   </si>
   <si>
@@ -565,6 +559,21 @@
   </si>
   <si>
     <t>少女鞋(蓝)</t>
+  </si>
+  <si>
+    <t>短裤(蓝)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>短袖上衣(蓝)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_suit4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03</t>
   </si>
 </sst>
 </file>
@@ -1026,15 +1035,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="223.109375" bestFit="1" customWidth="1"/>
@@ -1174,7 +1184,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>29</v>
@@ -1186,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1202,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1210,7 +1220,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>29</v>
@@ -1222,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1238,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1246,7 +1256,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>29</v>
@@ -1258,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1274,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1282,7 +1292,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>29</v>
@@ -1294,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1310,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1318,7 +1328,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>29</v>
@@ -1330,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1346,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1354,7 +1364,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
@@ -1366,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1382,7 +1392,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1390,7 +1400,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
@@ -1402,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" ref="H11:H16" si="1">"equip_json."&amp;TEXT(A11+4,0)</f>
@@ -1418,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1426,7 +1436,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
@@ -1438,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1454,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1462,7 +1472,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>29</v>
@@ -1474,7 +1484,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1490,7 +1500,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1498,7 +1508,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1510,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1526,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1534,7 +1544,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
@@ -1546,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1562,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1570,7 +1580,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>29</v>
@@ -1582,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1598,7 +1608,7 @@
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1606,7 +1616,7 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
@@ -1618,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H17" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A17+4,0)</f>
@@ -1634,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1642,7 +1652,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
@@ -1654,7 +1664,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A18+4,0)</f>
@@ -1670,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1678,7 +1688,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -1690,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A19+4,0)</f>
@@ -1706,51 +1716,51 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" ref="H20:H25" si="2">"equip_json."&amp;TEXT(A20+4,0)</f>
-        <v>equip_json.405</v>
+        <f>"equip_json."&amp;TEXT(A20+4,0)</f>
+        <v>equip_json.308</v>
       </c>
       <c r="I20" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J20">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
@@ -1762,194 +1772,194 @@
         <v>1</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="2" t="str">
+        <f t="shared" ref="H21:H26" si="2">"equip_json."&amp;TEXT(A21+4,0)</f>
+        <v>equip_json.405</v>
+      </c>
+      <c r="I21" s="6">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>10000</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>402</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.406</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <v>9</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>5000</v>
       </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>403</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22">
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
         <v>4</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="2" t="str">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.407</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I23" s="6">
         <v>9</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>5000</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>404</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23">
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>0</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="2" t="str">
+      <c r="G24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.408</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <v>4</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>10000</v>
       </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>405</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24">
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="2" t="str">
+      <c r="G25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.409</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="6">
         <v>9</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>5000</v>
       </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>406</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25">
+      <c r="B26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="2" t="str">
+      <c r="G26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.410</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>9</v>
-      </c>
-      <c r="J25">
-        <v>5000</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>501</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H26" s="2" t="str">
-        <f t="shared" ref="H26:H33" si="3">"equip_json."&amp;TEXT(A26,0)</f>
-        <v>equip_json.501</v>
-      </c>
-      <c r="I26" s="6">
-        <v>5</v>
       </c>
       <c r="J26">
         <v>5000</v>
@@ -1957,13 +1967,16 @@
       <c r="K26">
         <v>2</v>
       </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
@@ -1975,251 +1988,248 @@
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H27" s="2" t="str">
+        <f t="shared" ref="H27:H34" si="3">"equip_json."&amp;TEXT(A27,0)</f>
+        <v>equip_json.501</v>
+      </c>
+      <c r="I27" s="6">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>5000</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>502</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.502</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I28" s="6">
         <v>10</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>5000</v>
       </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>503</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28">
+      <c r="B29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H28" s="2" t="str">
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.503</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I29" s="6">
         <v>10</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>5000</v>
       </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>504</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29">
+      <c r="B30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" s="2" t="str">
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.504</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="6">
         <v>5</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>5000</v>
       </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>601</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30">
+      <c r="B31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
         <v>6</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="2" t="str">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.601</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I31" s="6">
         <v>10</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>5000</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>602</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31">
+      <c r="B32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" s="2" t="str">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.602</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="6">
         <v>10</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>5000</v>
       </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>701</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32">
+      <c r="B33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
         <v>7</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H32" s="2" t="str">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.701</v>
       </c>
-      <c r="I32" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32">
+      <c r="I33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33">
         <v>20000</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>702</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33">
+      <c r="B34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
         <v>7</v>
       </c>
-      <c r="F33">
+      <c r="F34">
         <v>0</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" s="2" t="str">
+      <c r="G34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H34" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.702</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J33">
-        <v>20000</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>703</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A34,0)</f>
-        <v>equip_json.703</v>
-      </c>
       <c r="I34" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J34">
         <v>20000</v>
@@ -2228,7 +2238,43 @@
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>80</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>703</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A35,0)</f>
+        <v>equip_json.703</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J35">
+        <v>20000</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2303,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2269,54 +2315,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="100">
   <si>
     <t>Id</t>
   </si>
@@ -528,12 +528,6 @@
     <t>绅士装(蓝)</t>
   </si>
   <si>
-    <t>连衣裙(红)</t>
-  </si>
-  <si>
-    <t>连衣裙(橘)</t>
-  </si>
-  <si>
     <t>绅士裤(红)</t>
   </si>
   <si>
@@ -561,19 +555,35 @@
     <t>少女鞋(蓝)</t>
   </si>
   <si>
-    <t>短裤(蓝)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>短袖上衣(蓝)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>girl_suit4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03</t>
+  </si>
+  <si>
+    <t>牛仔短裤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色短袖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星无袖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色短裙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_suit2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连衣裙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1035,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1196,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1232,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1268,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1304,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1340,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1376,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1508,7 +1518,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1544,7 +1554,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
@@ -1616,7 +1626,7 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>29</v>
@@ -1652,7 +1662,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>29</v>
@@ -1688,7 +1698,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -1752,51 +1762,51 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" ref="H21:H26" si="2">"equip_json."&amp;TEXT(A21+4,0)</f>
-        <v>equip_json.405</v>
+        <f>"equip_json."&amp;TEXT(A21+4,0)</f>
+        <v>equip_json.309</v>
       </c>
       <c r="I21" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -1811,191 +1821,191 @@
         <v>40</v>
       </c>
       <c r="H22" s="2" t="str">
+        <f t="shared" ref="H22:H27" si="2">"equip_json."&amp;TEXT(A22+4,0)</f>
+        <v>equip_json.405</v>
+      </c>
+      <c r="I22" s="6">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>10000</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>402</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.406</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I23" s="6">
         <v>9</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>5000</v>
       </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>403</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23">
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="2" t="str">
+      <c r="H24" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.407</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <v>9</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>5000</v>
       </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>404</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24">
+      <c r="B25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>0</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="2" t="str">
+      <c r="H25" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.408</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="6">
         <v>4</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>10000</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>405</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25">
+      <c r="B26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>0</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="2" t="str">
+      <c r="H26" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.409</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <v>9</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>5000</v>
       </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>406</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26">
+      <c r="B27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
         <v>4</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>0</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="2" t="str">
+      <c r="H27" s="2" t="str">
         <f t="shared" si="2"/>
         <v>equip_json.410</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I27" s="6">
         <v>9</v>
-      </c>
-      <c r="J26">
-        <v>5000</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>501</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="2" t="str">
-        <f t="shared" ref="H27:H34" si="3">"equip_json."&amp;TEXT(A27,0)</f>
-        <v>equip_json.501</v>
-      </c>
-      <c r="I27" s="6">
-        <v>5</v>
       </c>
       <c r="J27">
         <v>5000</v>
@@ -2003,13 +2013,16 @@
       <c r="K27">
         <v>2</v>
       </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>29</v>
@@ -2024,246 +2037,243 @@
         <v>41</v>
       </c>
       <c r="H28" s="2" t="str">
+        <f t="shared" ref="H28:H35" si="3">"equip_json."&amp;TEXT(A28,0)</f>
+        <v>equip_json.501</v>
+      </c>
+      <c r="I28" s="6">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5000</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>502</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.502</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I29" s="6">
         <v>10</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>5000</v>
       </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>503</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29">
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="2" t="s">
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="2" t="str">
+      <c r="H30" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.503</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I30" s="6">
         <v>10</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>5000</v>
       </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="K30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>504</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B31" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30">
+      <c r="C31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" s="2" t="s">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="2" t="str">
+      <c r="H31" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.504</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I31" s="6">
         <v>5</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>5000</v>
       </c>
-      <c r="K30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>601</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31">
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="2" t="str">
+      <c r="H32" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.601</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I32" s="6">
         <v>10</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>5000</v>
       </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+      <c r="K32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>602</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32">
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
         <v>6</v>
       </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" s="2" t="s">
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="2" t="str">
+      <c r="H33" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.602</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I33" s="6">
         <v>10</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>5000</v>
       </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="K33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>701</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33">
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
         <v>7</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2" t="s">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="2" t="str">
+      <c r="H34" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.701</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J33">
+      <c r="J34">
         <v>20000</v>
       </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>702</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B35" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34">
+      <c r="C35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>0</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="2" t="str">
+      <c r="H35" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.702</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J34">
-        <v>20000</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>703</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A35,0)</f>
-        <v>equip_json.703</v>
-      </c>
       <c r="I35" s="8" t="s">
         <v>75</v>
       </c>
@@ -2274,6 +2284,42 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>703</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A36,0)</f>
+        <v>equip_json.703</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J36">
+        <v>20000</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36" t="s">
         <v>79</v>
       </c>
     </row>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -105,7 +105,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>装备类型：</t>
+      <t>套装</t>
     </r>
     <r>
       <rPr>
@@ -114,7 +114,18 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>1.</t>
+      <t>id</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>0</t>
     </r>
     <r>
       <rPr>
@@ -123,7 +134,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>头部</t>
+      <t>女</t>
     </r>
     <r>
       <rPr>
@@ -132,7 +143,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>2.</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -141,7 +152,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>上身</t>
+      <t>男</t>
     </r>
     <r>
       <rPr>
@@ -150,7 +161,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>3.</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -159,7 +170,269 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>下身</t>
+      <t>全部</t>
+    </r>
+  </si>
+  <si>
+    <t>挂载点；套装要把所有的挂载点全部填进去</t>
+  </si>
+  <si>
+    <t>图片路径</t>
+  </si>
+  <si>
+    <t>技能id</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>货币类型:1金币2钻石</t>
+  </si>
+  <si>
+    <t>图集名称</t>
+  </si>
+  <si>
+    <t>装备获得效果</t>
+  </si>
+  <si>
+    <t>boy_suit2</t>
+  </si>
+  <si>
+    <t>boy_suit3</t>
+  </si>
+  <si>
+    <t>boy_suit4</t>
+  </si>
+  <si>
+    <t>girl_suit2</t>
+  </si>
+  <si>
+    <t>girl_suit3</t>
+  </si>
+  <si>
+    <t>girl_suit4</t>
+  </si>
+  <si>
+    <t>boy_suit5</t>
+  </si>
+  <si>
+    <t>girl_suit5</t>
+  </si>
+  <si>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
+  </si>
+  <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
+  </si>
+  <si>
+    <t>shoes1_1_00;shoes1_1_01</t>
+  </si>
+  <si>
+    <t>wing</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
+  </si>
+  <si>
+    <t>TableName: "Equip" Package: "table" CSClassHeader: "[System.Serializable]"</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>FieldName</t>
+  </si>
+  <si>
+    <t>FieldType</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Alias</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Meta</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>对象类型</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>枚举值</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>特性</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>银</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>樱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌鸦之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔术扑克</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>折扇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>光之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使之翼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士金发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士绿发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士蓝发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女橘发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女紫发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女蓝发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6;7;8;9;10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾利欧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>boy_suit6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装(红)</t>
+  </si>
+  <si>
+    <t>绅士装(绿)</t>
+  </si>
+  <si>
+    <t>绅士装(蓝)</t>
+  </si>
+  <si>
+    <t>绅士裤(红)</t>
+  </si>
+  <si>
+    <t>绅士裤(绿)</t>
+  </si>
+  <si>
+    <t>绅士裤(蓝)</t>
+  </si>
+  <si>
+    <t>皮鞋(紫)</t>
+  </si>
+  <si>
+    <t>皮鞋(蓝)</t>
+  </si>
+  <si>
+    <t>皮鞋(白)</t>
+  </si>
+  <si>
+    <t>少女鞋(紫)</t>
+  </si>
+  <si>
+    <t>少女鞋(黑)</t>
+  </si>
+  <si>
+    <t>少女鞋(蓝)</t>
+  </si>
+  <si>
+    <t>girl_suit4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03</t>
+  </si>
+  <si>
+    <t>牛仔短裤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色短袖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星无袖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色短裙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_suit2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>连衣裙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>装备类型：</t>
     </r>
     <r>
       <rPr>
@@ -168,7 +441,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>4.</t>
+      <t>1.</t>
     </r>
     <r>
       <rPr>
@@ -177,7 +450,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>鞋子</t>
+      <t>头部</t>
     </r>
     <r>
       <rPr>
@@ -186,7 +459,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>5.</t>
+      <t>2.</t>
     </r>
     <r>
       <rPr>
@@ -195,7 +468,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>翅膀</t>
+      <t>上身</t>
     </r>
     <r>
       <rPr>
@@ -204,7 +477,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>6.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -213,7 +486,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>手持</t>
+      <t>下身</t>
     </r>
     <r>
       <rPr>
@@ -222,7 +495,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>7.</t>
+      <t>4.</t>
     </r>
     <r>
       <rPr>
@@ -231,7 +504,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>套装</t>
+      <t>鞋子</t>
     </r>
     <r>
       <rPr>
@@ -240,7 +513,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>8</t>
+      <t>5.</t>
     </r>
     <r>
       <rPr>
@@ -249,10 +522,17 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>长衣</t>
-    </r>
-  </si>
-  <si>
+      <t>翅膀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>6.</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -260,7 +540,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>套装</t>
+      <t>手持</t>
     </r>
     <r>
       <rPr>
@@ -269,10 +549,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>id</t>
-    </r>
-  </si>
-  <si>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>套装</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -280,7 +567,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>0</t>
+      <t>8.</t>
     </r>
     <r>
       <rPr>
@@ -289,300 +576,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>女</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>男</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>全部</t>
-    </r>
-  </si>
-  <si>
-    <t>挂载点；套装要把所有的挂载点全部填进去</t>
-  </si>
-  <si>
-    <t>图片路径</t>
-  </si>
-  <si>
-    <t>技能id</t>
-  </si>
-  <si>
-    <t>价格</t>
-  </si>
-  <si>
-    <t>货币类型:1金币2钻石</t>
-  </si>
-  <si>
-    <t>图集名称</t>
-  </si>
-  <si>
-    <t>装备获得效果</t>
-  </si>
-  <si>
-    <t>boy_suit2</t>
-  </si>
-  <si>
-    <t>boy_suit3</t>
-  </si>
-  <si>
-    <t>boy_suit4</t>
-  </si>
-  <si>
-    <t>girl_suit2</t>
-  </si>
-  <si>
-    <t>girl_suit3</t>
-  </si>
-  <si>
-    <t>girl_suit4</t>
-  </si>
-  <si>
-    <t>boy_suit5</t>
-  </si>
-  <si>
-    <t>girl_suit5</t>
-  </si>
-  <si>
-    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
-  </si>
-  <si>
-    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
-  </si>
-  <si>
-    <t>shoes1_1_00;shoes1_1_01</t>
-  </si>
-  <si>
-    <t>wing</t>
-  </si>
-  <si>
-    <t>weapon</t>
-  </si>
-  <si>
-    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
-  </si>
-  <si>
-    <t>TableName: "Equip" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>银</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>樱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乌鸦之翼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔术扑克</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>折扇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>光之翼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔之翼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>天使之翼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士金发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士绿发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士蓝发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女橘发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女紫发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女蓝发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6;7;8;9;10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾利欧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boy_suit6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士装(红)</t>
-  </si>
-  <si>
-    <t>绅士装(绿)</t>
-  </si>
-  <si>
-    <t>绅士装(蓝)</t>
-  </si>
-  <si>
-    <t>绅士裤(红)</t>
-  </si>
-  <si>
-    <t>绅士裤(绿)</t>
-  </si>
-  <si>
-    <t>绅士裤(蓝)</t>
-  </si>
-  <si>
-    <t>皮鞋(紫)</t>
-  </si>
-  <si>
-    <t>皮鞋(蓝)</t>
-  </si>
-  <si>
-    <t>皮鞋(白)</t>
-  </si>
-  <si>
-    <t>少女鞋(紫)</t>
-  </si>
-  <si>
-    <t>少女鞋(黑)</t>
-  </si>
-  <si>
-    <t>少女鞋(蓝)</t>
-  </si>
-  <si>
-    <t>girl_suit4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03</t>
-  </si>
-  <si>
-    <t>牛仔短裤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色短袖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星无袖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉色短裙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>girl_suit2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙</t>
+      <t>长衣</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1047,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1056,7 +1051,8 @@
     <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="223.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
     <col min="9" max="10" width="10.44140625" customWidth="1"/>
@@ -1162,31 +1158,31 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1194,10 +1190,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1206,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1222,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1230,10 +1226,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1242,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1258,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1266,10 +1262,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1278,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1294,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1302,10 +1298,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1314,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1330,7 +1326,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1338,10 +1334,10 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1350,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1366,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1374,10 +1370,10 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1386,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1402,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1410,10 +1406,10 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1422,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" ref="H11:H16" si="1">"equip_json."&amp;TEXT(A11+4,0)</f>
@@ -1438,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1446,10 +1442,10 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1458,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1474,7 +1470,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1482,10 +1478,10 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1494,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1510,7 +1506,7 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1518,10 +1514,10 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1530,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1546,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1554,19 +1550,19 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1582,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="L15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -1590,10 +1586,10 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1602,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1618,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1626,10 +1622,10 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1638,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H17" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A17+4,0)</f>
@@ -1654,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1662,10 +1658,10 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1674,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A18+4,0)</f>
@@ -1690,7 +1686,7 @@
         <v>2</v>
       </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1698,10 +1694,10 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1710,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A19+4,0)</f>
@@ -1726,7 +1722,7 @@
         <v>2</v>
       </c>
       <c r="L19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1734,10 +1730,10 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1746,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A20+4,0)</f>
@@ -1762,7 +1758,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1770,10 +1766,10 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1782,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A21+4,0)</f>
@@ -1798,7 +1794,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1806,10 +1802,10 @@
         <v>401</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -1818,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" ref="H22:H27" si="2">"equip_json."&amp;TEXT(A22+4,0)</f>
@@ -1834,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1842,10 +1838,10 @@
         <v>402</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -1854,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1870,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -1878,10 +1874,10 @@
         <v>403</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -1890,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1906,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -1914,10 +1910,10 @@
         <v>404</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -1926,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1942,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -1950,10 +1946,10 @@
         <v>405</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1962,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1978,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -1986,10 +1982,10 @@
         <v>406</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -1998,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2014,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2022,10 +2018,10 @@
         <v>501</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -2034,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" ref="H28:H35" si="3">"equip_json."&amp;TEXT(A28,0)</f>
@@ -2055,10 +2051,10 @@
         <v>502</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -2067,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2088,10 +2084,10 @@
         <v>503</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -2100,7 +2096,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2121,10 +2117,10 @@
         <v>504</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -2133,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2154,10 +2150,10 @@
         <v>601</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -2166,7 +2162,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2187,10 +2183,10 @@
         <v>602</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -2199,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2220,10 +2216,10 @@
         <v>701</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>7</v>
@@ -2232,14 +2228,14 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.701</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J34">
         <v>20000</v>
@@ -2248,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="L34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2256,10 +2252,10 @@
         <v>702</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -2268,14 +2264,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.702</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J35">
         <v>20000</v>
@@ -2284,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2292,10 +2288,10 @@
         <v>703</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -2304,14 +2300,14 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H36" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A36,0)</f>
         <v>equip_json.703</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J36">
         <v>20000</v>
@@ -2320,7 +2316,7 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2349,7 +2345,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2361,54 +2357,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
   <si>
     <t>Id</t>
   </si>
@@ -352,10 +352,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>艾利欧</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -578,6 +574,14 @@
       </rPr>
       <t>长衣</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1042,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1158,7 +1162,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -1202,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1238,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1274,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1310,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1346,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1382,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1406,7 +1410,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -1442,7 +1446,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1478,7 +1482,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1514,7 +1518,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -1526,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1550,7 +1554,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -1562,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1586,7 +1590,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -1598,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1622,7 +1626,7 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
@@ -1658,7 +1662,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
@@ -1694,7 +1698,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -1730,7 +1734,7 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1758,7 +1762,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1766,7 +1770,7 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -1794,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1802,7 +1806,7 @@
         <v>401</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -1838,7 +1842,7 @@
         <v>402</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
@@ -1874,7 +1878,7 @@
         <v>403</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -1910,7 +1914,7 @@
         <v>404</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
@@ -1946,7 +1950,7 @@
         <v>405</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
@@ -1982,7 +1986,7 @@
         <v>406</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>
@@ -2288,7 +2292,7 @@
         <v>703</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>28</v>
@@ -2316,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <t>Id</t>
   </si>
@@ -360,16 +360,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>绅士装(红)</t>
-  </si>
-  <si>
     <t>绅士装(绿)</t>
   </si>
   <si>
     <t>绅士装(蓝)</t>
-  </si>
-  <si>
-    <t>绅士裤(红)</t>
   </si>
   <si>
     <t>绅士裤(绿)</t>
@@ -582,6 +576,18 @@
   </si>
   <si>
     <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色迷彩卫衣</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>军装裤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;skirt1_1_00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1047,7 +1053,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1162,7 +1168,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -1206,7 +1212,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1242,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1278,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1314,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1350,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1386,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1410,7 +1416,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -1446,7 +1452,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1482,7 +1488,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1518,7 +1524,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -1530,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1554,7 +1560,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -1566,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1590,7 +1596,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -1602,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1626,7 +1632,7 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
@@ -1662,7 +1668,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
@@ -1698,7 +1704,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -1734,7 +1740,7 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1762,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1770,7 +1776,7 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -1782,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="H21" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A21+4,0)</f>
@@ -1798,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1806,7 +1812,7 @@
         <v>401</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -1842,7 +1848,7 @@
         <v>402</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
@@ -1878,7 +1884,7 @@
         <v>403</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -1914,7 +1920,7 @@
         <v>404</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
@@ -1950,7 +1956,7 @@
         <v>405</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
@@ -1986,7 +1992,7 @@
         <v>406</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
   <si>
     <t>Id</t>
   </si>
@@ -571,10 +571,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -584,6 +580,14 @@
   </si>
   <si>
     <t>军装裤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;skirt1_1_00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;skirt1_1_00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1052,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1416,7 +1420,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -1536,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1572,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1608,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1632,7 +1636,7 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
@@ -1752,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="H20" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A20+4,0)</f>
@@ -1788,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H21" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A21+4,0)</f>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -1262,7 +1262,7 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1298,7 +1298,7 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="J9">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1406,7 +1406,7 @@
         <v>6</v>
       </c>
       <c r="J10">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1478,7 +1478,7 @@
         <v>7</v>
       </c>
       <c r="J12">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1514,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="J13">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1550,7 +1550,7 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="J15">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="J16">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="J17">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1694,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="J18">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1730,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="J19">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1766,7 +1766,7 @@
         <v>8</v>
       </c>
       <c r="J20">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1802,7 +1802,7 @@
         <v>8</v>
       </c>
       <c r="J21">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1838,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="J22">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1874,7 +1874,7 @@
         <v>9</v>
       </c>
       <c r="J23">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1910,7 +1910,7 @@
         <v>9</v>
       </c>
       <c r="J24">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -1946,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="J25">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="J26">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2018,7 +2018,7 @@
         <v>9</v>
       </c>
       <c r="J27">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2054,7 +2054,7 @@
         <v>5</v>
       </c>
       <c r="J28">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2087,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2120,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2153,7 +2153,7 @@
         <v>5</v>
       </c>
       <c r="J31">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2186,7 +2186,7 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2219,7 +2219,7 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2252,7 +2252,7 @@
         <v>74</v>
       </c>
       <c r="J34">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2288,7 +2288,7 @@
         <v>74</v>
       </c>
       <c r="J35">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2324,7 +2324,7 @@
         <v>74</v>
       </c>
       <c r="J36">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="K36">
         <v>2</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -234,9 +234,6 @@
     <t>weapon</t>
   </si>
   <si>
-    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;head1_1_04;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
-  </si>
-  <si>
     <t>TableName: "Equip" Package: "table" CSClassHeader: "[System.Serializable]"</t>
   </si>
   <si>
@@ -358,21 +355,6 @@
   <si>
     <t>boy_suit6</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士装(绿)</t>
-  </si>
-  <si>
-    <t>绅士装(蓝)</t>
-  </si>
-  <si>
-    <t>绅士裤(绿)</t>
-  </si>
-  <si>
-    <t>绅士裤(蓝)</t>
-  </si>
-  <si>
-    <t>皮鞋(紫)</t>
   </si>
   <si>
     <t>皮鞋(蓝)</t>
@@ -592,6 +574,30 @@
   </si>
   <si>
     <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;skirt1_1_00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士裤(绿)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水手短袖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色跑鞋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水手短裤</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1056,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1172,7 +1178,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -1204,7 +1210,7 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -1216,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1240,7 +1246,7 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -1252,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1276,7 +1282,7 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -1288,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1312,7 +1318,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -1324,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1348,7 +1354,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -1360,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1384,7 +1390,7 @@
         <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
@@ -1396,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1420,7 +1426,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -1456,7 +1462,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1492,7 +1498,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1528,7 +1534,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -1540,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1564,7 +1570,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -1576,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1600,7 +1606,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -1612,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1636,7 +1642,7 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
@@ -1648,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A17+4,0)</f>
@@ -1672,7 +1678,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
@@ -1708,7 +1714,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -1744,7 +1750,7 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1756,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H20" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A20+4,0)</f>
@@ -1772,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1780,7 +1786,7 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -1792,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H21" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A21+4,0)</f>
@@ -1808,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1816,7 +1822,7 @@
         <v>401</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -1852,7 +1858,7 @@
         <v>402</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
@@ -1888,7 +1894,7 @@
         <v>403</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -1924,7 +1930,7 @@
         <v>404</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
@@ -1960,7 +1966,7 @@
         <v>405</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
@@ -1996,7 +2002,7 @@
         <v>406</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>
@@ -2032,7 +2038,7 @@
         <v>501</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
@@ -2065,7 +2071,7 @@
         <v>502</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
@@ -2098,7 +2104,7 @@
         <v>503</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
@@ -2131,7 +2137,7 @@
         <v>504</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>28</v>
@@ -2164,7 +2170,7 @@
         <v>601</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>28</v>
@@ -2197,7 +2203,7 @@
         <v>602</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>28</v>
@@ -2230,7 +2236,7 @@
         <v>701</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>28</v>
@@ -2242,14 +2248,14 @@
         <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.701</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J34">
         <v>30000</v>
@@ -2266,7 +2272,7 @@
         <v>702</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>28</v>
@@ -2278,14 +2284,14 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="3"/>
         <v>equip_json.702</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J35">
         <v>30000</v>
@@ -2302,7 +2308,7 @@
         <v>703</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>28</v>
@@ -2314,14 +2320,14 @@
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="H36" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A36,0)</f>
         <v>equip_json.703</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J36">
         <v>30000</v>
@@ -2330,7 +2336,7 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2359,7 +2365,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2371,54 +2377,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
   <si>
     <t>Id</t>
   </si>
@@ -86,7 +86,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Verdana"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -363,9 +363,6 @@
     <t>皮鞋(白)</t>
   </si>
   <si>
-    <t>少女鞋(紫)</t>
-  </si>
-  <si>
     <t>少女鞋(黑)</t>
   </si>
   <si>
@@ -396,10 +393,6 @@
   </si>
   <si>
     <t>girl_suit2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>连衣裙</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -598,6 +591,22 @@
   </si>
   <si>
     <t>水手短裤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色短裤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_suit3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色夹克</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白鞋</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -630,7 +639,7 @@
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1060,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1187,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -1222,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1258,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1294,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1330,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1366,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1402,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1426,7 +1435,7 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -1462,7 +1471,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1498,7 +1507,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1534,7 +1543,7 @@
         <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -1546,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1570,7 +1579,7 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -1582,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1606,7 +1615,7 @@
         <v>206</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -1618,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1642,7 +1651,7 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
@@ -1657,7 +1666,7 @@
         <v>74</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A17+4,0)</f>
+        <f t="shared" ref="H17:H22" si="2">"equip_json."&amp;TEXT(A17+4,0)</f>
         <v>equip_json.305</v>
       </c>
       <c r="I17" s="6">
@@ -1678,7 +1687,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
@@ -1693,7 +1702,7 @@
         <v>38</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A18+4,0)</f>
+        <f t="shared" si="2"/>
         <v>equip_json.306</v>
       </c>
       <c r="I18" s="6">
@@ -1714,7 +1723,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -1729,7 +1738,7 @@
         <v>38</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A19+4,0)</f>
+        <f t="shared" si="2"/>
         <v>equip_json.307</v>
       </c>
       <c r="I19" s="6">
@@ -1750,7 +1759,7 @@
         <v>304</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1762,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A20+4,0)</f>
+        <f t="shared" si="2"/>
         <v>equip_json.308</v>
       </c>
       <c r="I20" s="6">
@@ -1778,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1786,7 +1795,7 @@
         <v>305</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -1798,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A21+4,0)</f>
+        <f t="shared" si="2"/>
         <v>equip_json.309</v>
       </c>
       <c r="I21" s="6">
@@ -1814,51 +1823,51 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" ref="H22:H27" si="2">"equip_json."&amp;TEXT(A22+4,0)</f>
-        <v>equip_json.405</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.310</v>
       </c>
       <c r="I22" s="6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
@@ -1873,28 +1882,28 @@
         <v>39</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.406</v>
+        <f t="shared" ref="H23:H28" si="3">"equip_json."&amp;TEXT(A23+4,0)</f>
+        <v>equip_json.405</v>
       </c>
       <c r="I23" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -1909,8 +1918,8 @@
         <v>39</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.407</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.406</v>
       </c>
       <c r="I24" s="6">
         <v>9</v>
@@ -1922,15 +1931,15 @@
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
@@ -1939,34 +1948,34 @@
         <v>4</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.408</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.407</v>
       </c>
       <c r="I25" s="6">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J25">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
@@ -1981,28 +1990,28 @@
         <v>39</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.409</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.408</v>
       </c>
       <c r="I26" s="6">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J26">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>
@@ -2017,8 +2026,8 @@
         <v>39</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.410</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.409</v>
       </c>
       <c r="I27" s="6">
         <v>9</v>
@@ -2030,34 +2039,34 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>501</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>61</v>
+        <v>406</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" ref="H28:H35" si="3">"equip_json."&amp;TEXT(A28,0)</f>
-        <v>equip_json.501</v>
+        <f t="shared" si="3"/>
+        <v>equip_json.410</v>
       </c>
       <c r="I28" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J28">
         <v>10000</v>
@@ -2065,13 +2074,16 @@
       <c r="K28">
         <v>2</v>
       </c>
+      <c r="L28" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
@@ -2086,11 +2098,11 @@
         <v>40</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.502</v>
+        <f t="shared" ref="H29:H36" si="4">"equip_json."&amp;TEXT(A29,0)</f>
+        <v>equip_json.501</v>
       </c>
       <c r="I29" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>10000</v>
@@ -2101,10 +2113,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
@@ -2119,8 +2131,8 @@
         <v>40</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.503</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.502</v>
       </c>
       <c r="I30" s="6">
         <v>10</v>
@@ -2134,10 +2146,10 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>28</v>
@@ -2152,11 +2164,11 @@
         <v>40</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.504</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.503</v>
       </c>
       <c r="I31" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <v>10000</v>
@@ -2167,29 +2179,29 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>601</v>
+        <v>504</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.601</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.504</v>
       </c>
       <c r="I32" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J32">
         <v>10000</v>
@@ -2200,10 +2212,10 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>28</v>
@@ -2218,8 +2230,8 @@
         <v>41</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.602</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.601</v>
       </c>
       <c r="I33" s="6">
         <v>10</v>
@@ -2233,46 +2245,43 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>701</v>
+        <v>602</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.701</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>73</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.602</v>
+      </c>
+      <c r="I34" s="6">
+        <v>10</v>
       </c>
       <c r="J34">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="K34">
         <v>2</v>
-      </c>
-      <c r="L34" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>28</v>
@@ -2281,14 +2290,14 @@
         <v>7</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.702</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.701</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>73</v>
@@ -2300,15 +2309,15 @@
         <v>2</v>
       </c>
       <c r="L35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>28</v>
@@ -2317,14 +2326,14 @@
         <v>7</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f>"equip_json."&amp;TEXT(A36,0)</f>
-        <v>equip_json.703</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.702</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>73</v>
@@ -2336,6 +2345,42 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>703</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A37,0)</f>
+        <v>equip_json.703</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37">
+        <v>30000</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" t="s">
         <v>76</v>
       </c>
     </row>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -562,51 +562,51 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;skirt1_1_00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士裤(绿)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水手短袖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色跑鞋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绅士装</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>水手短裤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰色短裤</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_suit3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色夹克</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小白鞋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;skirt1_1_00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;skirt1_1_00</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>head1_1_00;head1_1_01;head1_1_02;head1_1_03;body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;trousers1_1_02;trousers1_1_03;shoes1_1_00;shoes1_1_01</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士裤(绿)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水手短袖</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色跑鞋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绅士装</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>水手短裤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰色短裤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>girl_suit3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色夹克</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小白鞋</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1471,7 +1471,7 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1507,7 +1507,7 @@
         <v>203</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1579,19 +1579,19 @@
         <v>205</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1687,7 +1687,7 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
@@ -1723,7 +1723,7 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1831,7 +1831,7 @@
         <v>306</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -1867,7 +1867,7 @@
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
@@ -1975,7 +1975,7 @@
         <v>404</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2365,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H37" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A37,0)</f>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2565" yWindow="150" windowWidth="32325" windowHeight="11250" tabRatio="500"/>
+    <workbookView xWindow="-2565" yWindow="150" windowWidth="29040" windowHeight="11250" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TEquip" sheetId="1" r:id="rId1"/>
@@ -606,7 +606,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04;trousers1_1_00;trousers1_1_01;skirt1_1_00</t>
+    <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1071,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="121">
   <si>
     <t>Id</t>
   </si>
@@ -326,10 +326,6 @@
   </si>
   <si>
     <t>绅士蓝发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>少女橘发</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -609,6 +605,74 @@
     <t>body1_1_00;body1_1_01;body1_1_02;body1_1_03;body1_1_04</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>Make</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>id-num</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女橘发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -648,7 +712,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,6 +723,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -676,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -700,6 +776,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1069,10 +1157,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1178,7 @@
     <col min="12" max="1025" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1126,8 +1215,11 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1164,8 +1256,11 @@
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1187,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -1213,8 +1308,11 @@
       <c r="L4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -1231,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1249,8 +1347,11 @@
       <c r="L5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>102</v>
       </c>
@@ -1267,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1286,7 +1387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>103</v>
       </c>
@@ -1303,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1322,12 +1423,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>104</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>70</v>
+      <c r="B8" s="12" t="s">
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -1339,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1357,13 +1458,16 @@
       <c r="L8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="M8" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
         <v>105</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>71</v>
+      <c r="B9" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -1375,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1393,13 +1497,16 @@
       <c r="L9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="M9" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
         <v>106</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>72</v>
+      <c r="B10" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
@@ -1411,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1429,13 +1536,16 @@
       <c r="L10" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
@@ -1465,13 +1575,14 @@
       <c r="L11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>28</v>
@@ -1501,13 +1612,14 @@
       <c r="L12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="M12" s="16"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
         <v>203</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>96</v>
+      <c r="B13" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1537,13 +1649,16 @@
       <c r="L13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+      <c r="M13" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
         <v>204</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>85</v>
+      <c r="B14" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
@@ -1555,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1573,13 +1688,16 @@
       <c r="L14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="M14" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>205</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>102</v>
+      <c r="B15" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>28</v>
@@ -1591,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1609,13 +1727,16 @@
       <c r="L15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+      <c r="M15" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>206</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>84</v>
+      <c r="B16" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -1627,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1645,13 +1766,14 @@
       <c r="L16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>28</v>
@@ -1663,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" ref="H17:H22" si="2">"equip_json."&amp;TEXT(A17+4,0)</f>
@@ -1681,13 +1803,14 @@
       <c r="L17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>28</v>
@@ -1717,13 +1840,14 @@
       <c r="L18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>28</v>
@@ -1753,13 +1877,14 @@
       <c r="L19" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
         <v>304</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>83</v>
+      <c r="B20" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1771,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1787,15 +1912,18 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+        <v>80</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
         <v>305</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>86</v>
+      <c r="B21" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -1807,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1823,15 +1951,18 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+        <v>86</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
         <v>306</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>100</v>
+      <c r="B22" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -1843,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1859,15 +1990,18 @@
         <v>2</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
@@ -1897,13 +2031,14 @@
       <c r="L23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -1933,13 +2068,14 @@
       <c r="L24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
@@ -1969,13 +2105,14 @@
       <c r="L25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="11">
         <v>404</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>103</v>
+      <c r="B26" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
@@ -2005,13 +2142,16 @@
       <c r="L26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+      <c r="M26" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="11">
         <v>405</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>79</v>
+      <c r="B27" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>
@@ -2041,13 +2181,16 @@
       <c r="L27" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+      <c r="M27" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
         <v>406</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>80</v>
+      <c r="B28" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
@@ -2077,8 +2220,11 @@
       <c r="L28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>501</v>
       </c>
@@ -2110,8 +2256,9 @@
       <c r="K29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>502</v>
       </c>
@@ -2143,8 +2290,9 @@
       <c r="K30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>503</v>
       </c>
@@ -2176,8 +2324,9 @@
       <c r="K31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>504</v>
       </c>
@@ -2209,8 +2358,9 @@
       <c r="K32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>601</v>
       </c>
@@ -2242,8 +2392,9 @@
       <c r="K33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>602</v>
       </c>
@@ -2275,8 +2426,9 @@
       <c r="K34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>701</v>
       </c>
@@ -2293,14 +2445,14 @@
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="4"/>
         <v>equip_json.701</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J35">
         <v>30000</v>
@@ -2311,12 +2463,13 @@
       <c r="L35" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
         <v>702</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="13" t="s">
         <v>60</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2329,14 +2482,14 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="4"/>
         <v>equip_json.702</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J36">
         <v>30000</v>
@@ -2347,13 +2500,16 @@
       <c r="L36" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>703</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>28</v>
@@ -2365,14 +2521,14 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A37,0)</f>
         <v>equip_json.703</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J37">
         <v>30000</v>
@@ -2381,8 +2537,9 @@
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>76</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="M37" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -618,10 +618,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>少女橘发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>12-10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -671,6 +667,10 @@
   </si>
   <si>
     <t>24-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女红发</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1161,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N22" sqref="N22"/>
+      <selection pane="topRight" activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1428,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -1459,7 +1459,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>33</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1650,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1689,7 +1689,7 @@
         <v>32</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>80</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1954,7 +1954,7 @@
         <v>86</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1993,7 +1993,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2143,7 +2143,7 @@
         <v>32</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2182,7 +2182,7 @@
         <v>33</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
         <v>34</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2501,7 +2501,7 @@
         <v>36</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -618,59 +618,59 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>12-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>19-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>少女红发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20006-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20007-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20008-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20009-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20011-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20012-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20013-10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1161,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O19" sqref="O19"/>
+      <selection pane="topRight" activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1428,7 +1428,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -1459,7 +1459,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1498,7 +1498,7 @@
         <v>33</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1537,7 +1537,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1650,7 +1650,7 @@
         <v>31</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1689,7 +1689,7 @@
         <v>32</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1728,7 +1728,7 @@
         <v>33</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1915,7 +1915,7 @@
         <v>80</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1954,7 +1954,7 @@
         <v>86</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1993,7 +1993,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2143,7 +2143,7 @@
         <v>32</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2182,7 +2182,7 @@
         <v>33</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2221,7 +2221,7 @@
         <v>34</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2501,7 +2501,7 @@
         <v>36</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -663,10 +663,6 @@
   </si>
   <si>
     <t>碎片合成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id-num</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1169,7 +1165,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M18" sqref="M18"/>
+      <selection pane="topRight" activeCell="M20" sqref="G20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1228,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1269,7 +1265,7 @@
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1283,7 +1279,7 @@
         <v>16</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1361,9 +1357,6 @@
       </c>
       <c r="L5" t="s">
         <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -606,11 +606,63 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Make</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成</t>
+    <t>少女红发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20006-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20007-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20008-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20009-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20011-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20012-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20013-10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎片合成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -618,59 +670,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>少女红发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20002-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20003-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20004-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20005-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20006-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20007-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20008-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20009-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20010-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20011-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20012-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20013-10</t>
+    <t>DebrisMake</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: "-"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1161,21 +1169,25 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N35" sqref="N35"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="223.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.109375" customWidth="1"/>
-    <col min="9" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
-    <col min="12" max="1025" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="222.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" customWidth="1"/>
+    <col min="13" max="13" width="19" customWidth="1"/>
+    <col min="14" max="1025" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1216,7 +1228,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1257,7 +1269,7 @@
         <v>13</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1270,6 +1282,9 @@
       <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="M3" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1309,7 +1324,7 @@
         <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1348,7 +1363,7 @@
         <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1428,7 +1443,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -1459,7 +1474,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1498,7 +1513,7 @@
         <v>33</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1537,7 +1552,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1650,7 +1665,7 @@
         <v>31</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1689,7 +1704,7 @@
         <v>32</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1728,7 +1743,7 @@
         <v>33</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1915,7 +1930,7 @@
         <v>80</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1954,7 +1969,7 @@
         <v>86</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1993,7 +2008,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -2143,7 +2158,7 @@
         <v>32</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2182,7 +2197,7 @@
         <v>33</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2221,7 +2236,7 @@
         <v>34</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2501,7 +2516,7 @@
         <v>36</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
   <si>
     <t>Id</t>
   </si>
@@ -610,71 +610,71 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>20001-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20002-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20003-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20004-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20005-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20006-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20007-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20008-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20009-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20010-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20011-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20012-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20013-10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>碎片合成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DebrisMake</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListSpliter: "-"</t>
+    <t>碎片ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebrisID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeNum</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1161,11 +1161,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M20" sqref="G20:M20"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1183,10 +1183,11 @@
     <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.5546875" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
-    <col min="14" max="1025" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="1025" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1227,11 @@
       <c r="M1" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1264,11 +1268,14 @@
       <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1278,11 +1285,9 @@
       <c r="I3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,10 +1325,13 @@
         <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>102</v>
       </c>
@@ -1395,7 +1403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>103</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>104</v>
       </c>
@@ -1467,10 +1475,13 @@
         <v>32</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>105</v>
       </c>
@@ -1508,8 +1519,11 @@
       <c r="M9" s="16" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>106</v>
       </c>
@@ -1547,8 +1561,11 @@
       <c r="M10" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>201</v>
       </c>
@@ -1585,7 +1602,7 @@
       </c>
       <c r="M11" s="16"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>202</v>
       </c>
@@ -1622,7 +1639,7 @@
       </c>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>203</v>
       </c>
@@ -1660,8 +1677,11 @@
       <c r="M13" s="16" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>204</v>
       </c>
@@ -1699,8 +1719,11 @@
       <c r="M14" s="16" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>205</v>
       </c>
@@ -1738,8 +1761,11 @@
       <c r="M15" s="16" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>206</v>
       </c>
@@ -1776,7 +1802,7 @@
       </c>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>301</v>
       </c>
@@ -1813,7 +1839,7 @@
       </c>
       <c r="M17" s="16"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>302</v>
       </c>
@@ -1850,7 +1876,7 @@
       </c>
       <c r="M18" s="16"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>303</v>
       </c>
@@ -1887,7 +1913,7 @@
       </c>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>304</v>
       </c>
@@ -1925,8 +1951,11 @@
       <c r="M20" s="16" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>305</v>
       </c>
@@ -1964,8 +1993,11 @@
       <c r="M21" s="16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>306</v>
       </c>
@@ -2003,8 +2035,11 @@
       <c r="M22" s="16" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>401</v>
       </c>
@@ -2041,7 +2076,7 @@
       </c>
       <c r="M23" s="16"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>402</v>
       </c>
@@ -2078,7 +2113,7 @@
       </c>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>403</v>
       </c>
@@ -2115,7 +2150,7 @@
       </c>
       <c r="M25" s="16"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
         <v>404</v>
       </c>
@@ -2153,8 +2188,11 @@
       <c r="M26" s="16" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>405</v>
       </c>
@@ -2192,8 +2230,11 @@
       <c r="M27" s="16" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>406</v>
       </c>
@@ -2231,8 +2272,11 @@
       <c r="M28" s="16" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>501</v>
       </c>
@@ -2266,7 +2310,7 @@
       </c>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>502</v>
       </c>
@@ -2300,7 +2344,7 @@
       </c>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>503</v>
       </c>
@@ -2334,7 +2378,7 @@
       </c>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>504</v>
       </c>
@@ -2368,7 +2412,7 @@
       </c>
       <c r="M32" s="16"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>601</v>
       </c>
@@ -2402,7 +2446,7 @@
       </c>
       <c r="M33" s="16"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>602</v>
       </c>
@@ -2436,7 +2480,7 @@
       </c>
       <c r="M34" s="16"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>701</v>
       </c>
@@ -2473,7 +2517,7 @@
       </c>
       <c r="M35" s="16"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>702</v>
       </c>
@@ -2511,8 +2555,11 @@
       <c r="M36" s="16" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>703</v>
       </c>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -614,58 +614,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>20002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20003</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20004</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20005</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20006</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20007</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20008</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20009</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20010</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20011</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20012</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20013</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>DebrisID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -675,6 +623,58 @@
   </si>
   <si>
     <t>MakeNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110001</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110003</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110004</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110005</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110007</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110008</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110009</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110010</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110011</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110012</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110013</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1165,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <selection pane="topRight" activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1225,10 +1225,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
         <v>105</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1475,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -1517,7 +1517,7 @@
         <v>33</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -1559,7 +1559,7 @@
         <v>34</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -1675,7 +1675,7 @@
         <v>31</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -1717,7 +1717,7 @@
         <v>32</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -1759,7 +1759,7 @@
         <v>33</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -1949,7 +1949,7 @@
         <v>80</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="N20">
         <v>10</v>
@@ -1991,7 +1991,7 @@
         <v>86</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -2033,7 +2033,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -2186,7 +2186,7 @@
         <v>32</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N26">
         <v>10</v>
@@ -2228,7 +2228,7 @@
         <v>33</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="N27">
         <v>10</v>
@@ -2270,7 +2270,7 @@
         <v>34</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -2553,7 +2553,7 @@
         <v>36</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="N36">
         <v>10</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -1165,7 +1165,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M32" sqref="M32"/>
+      <selection pane="topRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <v>104</v>
+        <v>150001</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>104</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.108</v>
+        <v>equip_json.150005</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <v>105</v>
+        <v>150002</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>70</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.109</v>
+        <v>equip_json.150006</v>
       </c>
       <c r="I9" s="6">
         <v>6</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <v>106</v>
+        <v>150003</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>71</v>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>equip_json.110</v>
+        <v>equip_json.150007</v>
       </c>
       <c r="I10" s="6">
         <v>6</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <v>204</v>
+        <v>150004</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>84</v>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>equip_json.208</v>
+        <v>equip_json.150008</v>
       </c>
       <c r="I14" s="6">
         <v>2</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>205</v>
+        <v>150005</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>101</v>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>equip_json.209</v>
+        <v>equip_json.150009</v>
       </c>
       <c r="I15" s="6">
         <v>7</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <v>206</v>
+        <v>150006</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>83</v>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>equip_json.210</v>
+        <v>equip_json.150010</v>
       </c>
       <c r="I16" s="6">
         <v>7</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>304</v>
+        <v>150007</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>82</v>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>equip_json.308</v>
+        <v>equip_json.150011</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <v>305</v>
+        <v>150008</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>85</v>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>equip_json.309</v>
+        <v>equip_json.150012</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <v>306</v>
+        <v>150009</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>99</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>equip_json.310</v>
+        <v>equip_json.150013</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="11">
-        <v>404</v>
+        <v>150010</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>102</v>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>equip_json.408</v>
+        <v>equip_json.150014</v>
       </c>
       <c r="I26" s="6">
         <v>4</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
-        <v>405</v>
+        <v>150011</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>78</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>equip_json.409</v>
+        <v>equip_json.150015</v>
       </c>
       <c r="I27" s="6">
         <v>9</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>406</v>
+        <v>150012</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>79</v>
@@ -2255,7 +2255,7 @@
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>equip_json.410</v>
+        <v>equip_json.150016</v>
       </c>
       <c r="I28" s="6">
         <v>9</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
-        <v>702</v>
+        <v>150013</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>60</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>equip_json.702</v>
+        <v>equip_json.150013</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>72</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>价格</t>
-  </si>
-  <si>
-    <t>货币类型:1金币2钻石</t>
   </si>
   <si>
     <t>图集名称</t>
@@ -675,6 +672,10 @@
   </si>
   <si>
     <t>110013</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>货币类型:1金币2钻石3合成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1166,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A38" sqref="A38"/>
+      <selection pane="topRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1181,7 @@
     <col min="8" max="8" width="30.77734375" customWidth="1"/>
     <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.5546875" customWidth="1"/>
     <col min="13" max="13" width="19" customWidth="1"/>
     <col min="14" max="14" width="11.77734375" customWidth="1"/>
@@ -1225,10 +1226,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1298,7 +1299,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -1319,16 +1320,16 @@
         <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1336,10 +1337,10 @@
         <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1348,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
@@ -1361,10 +1362,10 @@
         <v>20000</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1372,10 +1373,10 @@
         <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1384,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1397,10 +1398,10 @@
         <v>10000</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1408,10 +1409,10 @@
         <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1420,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1433,10 +1434,10 @@
         <v>10000</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -1444,10 +1445,10 @@
         <v>150001</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1456,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1469,13 +1470,13 @@
         <v>20000</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -1486,10 +1487,10 @@
         <v>150002</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1498,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1511,13 +1512,13 @@
         <v>10000</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -1528,10 +1529,10 @@
         <v>150003</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1540,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -1553,13 +1554,13 @@
         <v>10000</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -1570,10 +1571,10 @@
         <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1582,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" ref="H11:H16" si="1">"equip_json."&amp;TEXT(A11+4,0)</f>
@@ -1595,10 +1596,10 @@
         <v>20000</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="16"/>
     </row>
@@ -1607,10 +1608,10 @@
         <v>202</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1619,7 +1620,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1632,10 +1633,10 @@
         <v>10000</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="16"/>
     </row>
@@ -1644,10 +1645,10 @@
         <v>203</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1656,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1669,13 +1670,13 @@
         <v>10000</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -1686,10 +1687,10 @@
         <v>150004</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1698,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1711,13 +1712,13 @@
         <v>20000</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -1728,10 +1729,10 @@
         <v>150005</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1740,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1753,13 +1754,13 @@
         <v>10000</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -1770,10 +1771,10 @@
         <v>150006</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1782,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1795,10 +1796,10 @@
         <v>10000</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="16"/>
     </row>
@@ -1807,10 +1808,10 @@
         <v>301</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1819,7 +1820,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" ref="H17:H22" si="2">"equip_json."&amp;TEXT(A17+4,0)</f>
@@ -1832,10 +1833,10 @@
         <v>20000</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M17" s="16"/>
     </row>
@@ -1844,10 +1845,10 @@
         <v>302</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1856,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1869,10 +1870,10 @@
         <v>10000</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M18" s="16"/>
     </row>
@@ -1881,10 +1882,10 @@
         <v>303</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1893,7 +1894,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1906,10 +1907,10 @@
         <v>10000</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19" s="16"/>
     </row>
@@ -1918,10 +1919,10 @@
         <v>150007</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1930,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1943,13 +1944,13 @@
         <v>10000</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N20">
         <v>10</v>
@@ -1960,10 +1961,10 @@
         <v>150008</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1972,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="2"/>
@@ -1985,13 +1986,13 @@
         <v>10000</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -2002,10 +2003,10 @@
         <v>150009</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2014,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="2"/>
@@ -2027,13 +2028,13 @@
         <v>10000</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -2044,10 +2045,10 @@
         <v>401</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23">
         <v>4</v>
@@ -2056,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" ref="H23:H28" si="3">"equip_json."&amp;TEXT(A23+4,0)</f>
@@ -2069,10 +2070,10 @@
         <v>20000</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M23" s="16"/>
     </row>
@@ -2081,10 +2082,10 @@
         <v>402</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -2093,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2106,10 +2107,10 @@
         <v>10000</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M24" s="16"/>
     </row>
@@ -2118,10 +2119,10 @@
         <v>403</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -2130,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2143,10 +2144,10 @@
         <v>10000</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M25" s="16"/>
     </row>
@@ -2155,10 +2156,10 @@
         <v>150010</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -2167,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2180,13 +2181,13 @@
         <v>20000</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N26">
         <v>10</v>
@@ -2197,10 +2198,10 @@
         <v>150011</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27">
         <v>4</v>
@@ -2209,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2222,13 +2223,13 @@
         <v>10000</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N27">
         <v>10</v>
@@ -2239,10 +2240,10 @@
         <v>150012</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -2251,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="3"/>
@@ -2264,13 +2265,13 @@
         <v>10000</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -2281,10 +2282,10 @@
         <v>501</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -2293,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" ref="H29:H36" si="4">"equip_json."&amp;TEXT(A29,0)</f>
@@ -2306,7 +2307,7 @@
         <v>10000</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29" s="16"/>
     </row>
@@ -2315,10 +2316,10 @@
         <v>502</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30">
         <v>5</v>
@@ -2327,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2340,7 +2341,7 @@
         <v>10000</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M30" s="16"/>
     </row>
@@ -2349,10 +2350,10 @@
         <v>503</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -2361,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2374,7 +2375,7 @@
         <v>10000</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="16"/>
     </row>
@@ -2383,10 +2384,10 @@
         <v>504</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -2395,7 +2396,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2408,7 +2409,7 @@
         <v>10000</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M32" s="16"/>
     </row>
@@ -2417,10 +2418,10 @@
         <v>601</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -2429,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2442,7 +2443,7 @@
         <v>10000</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M33" s="16"/>
     </row>
@@ -2451,10 +2452,10 @@
         <v>602</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -2463,7 +2464,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H34" s="2" t="str">
         <f t="shared" si="4"/>
@@ -2476,7 +2477,7 @@
         <v>10000</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34" s="16"/>
     </row>
@@ -2485,10 +2486,10 @@
         <v>701</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <v>7</v>
@@ -2497,23 +2498,23 @@
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H35" s="2" t="str">
         <f t="shared" si="4"/>
         <v>equip_json.701</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J35">
         <v>30000</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M35" s="16"/>
     </row>
@@ -2522,10 +2523,10 @@
         <v>150013</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D36">
         <v>7</v>
@@ -2534,26 +2535,26 @@
         <v>0</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="2" t="str">
         <f t="shared" si="4"/>
         <v>equip_json.150013</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J36">
         <v>30000</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N36">
         <v>10</v>
@@ -2564,10 +2565,10 @@
         <v>703</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D37">
         <v>7</v>
@@ -2576,23 +2577,23 @@
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H37" s="2" t="str">
         <f>"equip_json."&amp;TEXT(A37,0)</f>
         <v>equip_json.703</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J37">
         <v>30000</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M37" s="16"/>
     </row>
@@ -2622,7 +2623,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2634,54 +2635,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -1166,7 +1166,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K37" sqref="K37"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1460,8 +1460,8 @@
         <v>80</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.150005</v>
+        <f>"equip_json."&amp;TEXT(A8+0,0)</f>
+        <v>equip_json.150001</v>
       </c>
       <c r="I8" s="6">
         <v>1</v>
@@ -1502,8 +1502,8 @@
         <v>80</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.150006</v>
+        <f>"equip_json."&amp;TEXT(A9+0,0)</f>
+        <v>equip_json.150002</v>
       </c>
       <c r="I9" s="6">
         <v>6</v>
@@ -1544,8 +1544,8 @@
         <v>80</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>equip_json.150007</v>
+        <f>"equip_json."&amp;TEXT(A10+0,0)</f>
+        <v>equip_json.150003</v>
       </c>
       <c r="I10" s="6">
         <v>6</v>
@@ -1702,8 +1702,8 @@
         <v>87</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.150008</v>
+        <f t="shared" ref="H14:H16" si="2">"equip_json."&amp;TEXT(A14+0,0)</f>
+        <v>equip_json.150004</v>
       </c>
       <c r="I14" s="6">
         <v>2</v>
@@ -1744,8 +1744,8 @@
         <v>102</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.150009</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.150005</v>
       </c>
       <c r="I15" s="6">
         <v>7</v>
@@ -1786,8 +1786,8 @@
         <v>87</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>equip_json.150010</v>
+        <f t="shared" si="2"/>
+        <v>equip_json.150006</v>
       </c>
       <c r="I16" s="6">
         <v>7</v>
@@ -1823,7 +1823,7 @@
         <v>72</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" ref="H17:H22" si="2">"equip_json."&amp;TEXT(A17+4,0)</f>
+        <f t="shared" ref="H17:H22" si="3">"equip_json."&amp;TEXT(A17+4,0)</f>
         <v>equip_json.305</v>
       </c>
       <c r="I17" s="6">
@@ -1860,7 +1860,7 @@
         <v>37</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>equip_json.306</v>
       </c>
       <c r="I18" s="6">
@@ -1897,7 +1897,7 @@
         <v>37</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>equip_json.307</v>
       </c>
       <c r="I19" s="6">
@@ -1934,8 +1934,8 @@
         <v>91</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.150011</v>
+        <f t="shared" ref="H20:H22" si="4">"equip_json."&amp;TEXT(A20+0,0)</f>
+        <v>equip_json.150007</v>
       </c>
       <c r="I20" s="6">
         <v>8</v>
@@ -1976,8 +1976,8 @@
         <v>90</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.150012</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.150008</v>
       </c>
       <c r="I21" s="6">
         <v>8</v>
@@ -2018,8 +2018,8 @@
         <v>90</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>equip_json.150013</v>
+        <f t="shared" si="4"/>
+        <v>equip_json.150009</v>
       </c>
       <c r="I22" s="6">
         <v>8</v>
@@ -2060,7 +2060,7 @@
         <v>38</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" ref="H23:H28" si="3">"equip_json."&amp;TEXT(A23+4,0)</f>
+        <f t="shared" ref="H23:H28" si="5">"equip_json."&amp;TEXT(A23+4,0)</f>
         <v>equip_json.405</v>
       </c>
       <c r="I23" s="6">
@@ -2097,7 +2097,7 @@
         <v>38</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>equip_json.406</v>
       </c>
       <c r="I24" s="6">
@@ -2134,7 +2134,7 @@
         <v>38</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>equip_json.407</v>
       </c>
       <c r="I25" s="6">
@@ -2171,8 +2171,8 @@
         <v>38</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.150014</v>
+        <f t="shared" ref="H26:H28" si="6">"equip_json."&amp;TEXT(A26+0,0)</f>
+        <v>equip_json.150010</v>
       </c>
       <c r="I26" s="6">
         <v>4</v>
@@ -2213,8 +2213,8 @@
         <v>38</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.150015</v>
+        <f t="shared" si="6"/>
+        <v>equip_json.150011</v>
       </c>
       <c r="I27" s="6">
         <v>9</v>
@@ -2255,8 +2255,8 @@
         <v>38</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>equip_json.150016</v>
+        <f t="shared" si="6"/>
+        <v>equip_json.150012</v>
       </c>
       <c r="I28" s="6">
         <v>9</v>
@@ -2297,7 +2297,7 @@
         <v>39</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" ref="H29:H36" si="4">"equip_json."&amp;TEXT(A29,0)</f>
+        <f t="shared" ref="H29:H36" si="7">"equip_json."&amp;TEXT(A29,0)</f>
         <v>equip_json.501</v>
       </c>
       <c r="I29" s="6">
@@ -2331,7 +2331,7 @@
         <v>39</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>equip_json.502</v>
       </c>
       <c r="I30" s="6">
@@ -2365,7 +2365,7 @@
         <v>39</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>equip_json.503</v>
       </c>
       <c r="I31" s="6">
@@ -2399,7 +2399,7 @@
         <v>39</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>equip_json.504</v>
       </c>
       <c r="I32" s="6">
@@ -2433,7 +2433,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>equip_json.601</v>
       </c>
       <c r="I33" s="6">
@@ -2467,7 +2467,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>equip_json.602</v>
       </c>
       <c r="I34" s="6">
@@ -2501,7 +2501,7 @@
         <v>92</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>equip_json.701</v>
       </c>
       <c r="I35" s="8" t="s">
@@ -2538,7 +2538,7 @@
         <v>92</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>"equip_json."&amp;TEXT(A36+0,0)</f>
         <v>equip_json.150013</v>
       </c>
       <c r="I36" s="8" t="s">

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="123">
   <si>
     <t>Id</t>
   </si>
@@ -676,6 +676,10 @@
   </si>
   <si>
     <t>货币类型:1金币2钻石3合成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1166,7 +1170,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1270,10 +1274,10 @@
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1352,7 +1356,7 @@
         <v>80</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f t="shared" ref="H5:H10" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
+        <f t="shared" ref="H5:H7" si="0">"equip_json."&amp;TEXT(A5+4,0)</f>
         <v>equip_json.105</v>
       </c>
       <c r="I5" s="6">
@@ -1586,7 +1590,7 @@
         <v>36</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f t="shared" ref="H11:H16" si="1">"equip_json."&amp;TEXT(A11+4,0)</f>
+        <f t="shared" ref="H11:H13" si="1">"equip_json."&amp;TEXT(A11+4,0)</f>
         <v>equip_json.205</v>
       </c>
       <c r="I11" s="6">
@@ -1823,7 +1827,7 @@
         <v>72</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" ref="H17:H22" si="3">"equip_json."&amp;TEXT(A17+4,0)</f>
+        <f t="shared" ref="H17:H19" si="3">"equip_json."&amp;TEXT(A17+4,0)</f>
         <v>equip_json.305</v>
       </c>
       <c r="I17" s="6">
@@ -2060,7 +2064,7 @@
         <v>38</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f t="shared" ref="H23:H28" si="5">"equip_json."&amp;TEXT(A23+4,0)</f>
+        <f t="shared" ref="H23:H25" si="5">"equip_json."&amp;TEXT(A23+4,0)</f>
         <v>equip_json.405</v>
       </c>
       <c r="I23" s="6">
@@ -2297,7 +2301,7 @@
         <v>39</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f t="shared" ref="H29:H36" si="7">"equip_json."&amp;TEXT(A29,0)</f>
+        <f t="shared" ref="H29:H35" si="7">"equip_json."&amp;TEXT(A29,0)</f>
         <v>equip_json.501</v>
       </c>
       <c r="I29" s="6">

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -611,18 +611,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>DebrisID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>合成数量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MakeNum</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>110001</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -680,6 +672,14 @@
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebrisNum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DebrisId</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1170,7 +1170,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N7" sqref="N7"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1230,10 +1230,10 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1274,10 +1274,10 @@
         <v>13</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>26</v>
@@ -1333,7 +1333,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -1480,7 +1480,7 @@
         <v>31</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -1522,7 +1522,7 @@
         <v>32</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N9">
         <v>10</v>
@@ -1564,7 +1564,7 @@
         <v>33</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>10</v>
@@ -1680,7 +1680,7 @@
         <v>30</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N13">
         <v>10</v>
@@ -1722,7 +1722,7 @@
         <v>31</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -1764,7 +1764,7 @@
         <v>32</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -1954,7 +1954,7 @@
         <v>79</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>10</v>
@@ -1996,7 +1996,7 @@
         <v>85</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N21">
         <v>10</v>
@@ -2038,7 +2038,7 @@
         <v>99</v>
       </c>
       <c r="M22" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N22">
         <v>10</v>
@@ -2191,7 +2191,7 @@
         <v>31</v>
       </c>
       <c r="M26" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N26">
         <v>10</v>
@@ -2233,7 +2233,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N27">
         <v>10</v>
@@ -2275,7 +2275,7 @@
         <v>33</v>
       </c>
       <c r="M28" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N28">
         <v>10</v>
@@ -2558,7 +2558,7 @@
         <v>35</v>
       </c>
       <c r="M36" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N36">
         <v>10</v>

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -1170,7 +1170,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N6" sqref="N6"/>
+      <selection pane="topRight" activeCell="M14" sqref="M14:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1679,12 +1679,6 @@
       <c r="L13" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
@@ -1722,7 +1716,7 @@
         <v>31</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -1764,7 +1758,7 @@
         <v>32</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -1805,7 +1799,12 @@
       <c r="L16" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="16"/>
+      <c r="M16" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">

--- a/docs/excel/TEquip.xlsx
+++ b/docs/excel/TEquip.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
   <si>
     <t>Id</t>
   </si>
@@ -680,6 +680,18 @@
   </si>
   <si>
     <t>DebrisId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110014</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>girl_suit6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>梓喵</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1166,11 +1178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M14" sqref="M14:N16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2599,6 +2611,48 @@
         <v>74</v>
       </c>
       <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>150014</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f>"equip_json."&amp;TEXT(A38+0,0)</f>
+        <v>equip_json.150014</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38">
+        <v>30000</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
+        <v>124</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="N38">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
